--- a/doc/用户权限.xlsx
+++ b/doc/用户权限.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\springBoot\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2451E4C9-8A6C-4F09-929E-7264A66D8C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF5BCF7-D1A1-4B2F-85C6-615310208CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="用户权限" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="326">
   <si>
     <t>menu_id</t>
   </si>
@@ -292,9 +292,54 @@
     <t>DASHBOARD_STATS</t>
   </si>
   <si>
+    <t>/vesionbook-building-core/api/v1/dashboard/overview/att</t>
+  </si>
+  <si>
     <t>数据概览</t>
   </si>
   <si>
+    <t>/vesionbook-building-core/api/v1/dashboard/passStat/{startTime}/{endTime}</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-core/api/v1/dashboard/overview/conference</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-core/api/v1/dashboard/overview/device</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-core/api/v1/dashboard/overview/person</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-core/api/v1/dashboard/overview/pass</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-core/api/v1/dashboard/overview/visitor</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-core/api/v1/dashboard/visitor/overview/{date}</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-core/api/v1/dashboard/visitor/detail/{date}</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-core/api/v1/dashboard/att/{startTime}/{endTime}</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-core/api/v1/dashboard/deviceRankStat/ofDay/{startTime}/{endTime}</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-core/api/v1/dashboard/meetingRoom/queryStatus</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-core/api/v1/dashboard/meetingRoom/queryEveryDay</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-device/api/device/select/list/{version}</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-core/api/v1/person/group/relation/tree/list</t>
+  </si>
+  <si>
     <t>CAPTURE_RECORD</t>
   </si>
   <si>
@@ -304,9 +349,27 @@
     <t>识别记录</t>
   </si>
   <si>
+    <t>/vesionbook-building-core/api/v1/passrecord/capture/person/detail/{id}</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-core/api/v1/passrecord/capture/person/delete</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-core/api/v1/passrecord/capture/person/export/{version}</t>
+  </si>
+  <si>
     <t>search</t>
   </si>
   <si>
+    <t>/vesionbook-building-core/api/v1/passrecord/capture/stranger/records</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-core/api/v1/passrecord/capture/stranger/monitor/list</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-core/api/v1/passrecord/capture/stranger/export/{version}</t>
+  </si>
+  <si>
     <t>EPIDEMIC_BOARD</t>
   </si>
   <si>
@@ -325,6 +388,9 @@
     <t>PERSON</t>
   </si>
   <si>
+    <t>/vesionbook-building-core/api/v1/person/detail/select</t>
+  </si>
+  <si>
     <t>/vesionbook-building-core/api/v1/person/list/select</t>
   </si>
   <si>
@@ -337,6 +403,9 @@
     <t>/vesionbook-building-core/api/v1/person/batch/delete</t>
   </si>
   <si>
+    <t>/vesionbook-building-core/api/v1/person/custom/export/{version}</t>
+  </si>
+  <si>
     <t>batch_update</t>
   </si>
   <si>
@@ -349,12 +418,12 @@
     <t>PERSONNEL_GROUP</t>
   </si>
   <si>
-    <t>/vesionbook-building-core/api/v1/person/group/relation/tree/list</t>
-  </si>
-  <si>
     <t>人员组</t>
   </si>
   <si>
+    <t>/vesionbook-building-core/api/v1/person/group/relation/node/person/list</t>
+  </si>
+  <si>
     <t>/vesionbook-building-core/api/v1/personnel/group/create</t>
   </si>
   <si>
@@ -388,27 +457,87 @@
     <t>/vesionbook-building-core/api/v1/person/group/relation/unbind</t>
   </si>
   <si>
+    <t>/vesionbook-building-core/api/v1/personnel/group/batch/insert</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-core/api/v1/person/group/relation/import/change</t>
+  </si>
+  <si>
     <t>VERIFY_PERSON</t>
   </si>
   <si>
+    <t>/vesionbook-building-core/api/v1/verify/person/select/list</t>
+  </si>
+  <si>
     <t>人员审核</t>
   </si>
   <si>
+    <t>/vesionbook-building-core/api/v1/verify/person/select/detail</t>
+  </si>
+  <si>
     <t>verify</t>
   </si>
   <si>
+    <t>/vesionbook-building-core/api/v1/verify/person/process</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-core/api/v1/verify/person/download/all</t>
+  </si>
+  <si>
     <t>PASS_AUTH</t>
   </si>
   <si>
+    <t>/vesionbook-building-authority/api/v1/passauth/list</t>
+  </si>
+  <si>
     <t>通行授权</t>
   </si>
   <si>
+    <t>/vesionbook-building-authority/api/v1/passrule/list</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-authority/api/v1/passauth/detail/{id}</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-authority/api/v1/passauth/create</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-authority/api/v1/passauth/update/{id}</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-authority/api/v1/passauth/cancel/{id}</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-authority/api/v1/passauth/temperory/list</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-authority/api/v1/passauth/temperory/detail/{id}</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-authority/api/v1/passauth/temperory/create</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-authority/api/v1/passauth/temperory/update/{id}</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-authority/api/v1/passauth/temperory/cancel/{id}</t>
+  </si>
+  <si>
     <t>PASS_RULE</t>
   </si>
   <si>
     <t>通行规则</t>
   </si>
   <si>
+    <t>/vesionbook-building-authority/api/v1/passrule/detail/{id}</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-authority/api/v1/passrule/create</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-authority/api/v1/passrule/delete/{id}</t>
+  </si>
+  <si>
     <t>PASS_AUTH_PROCESS</t>
   </si>
   <si>
@@ -418,15 +547,27 @@
     <t>授权进度</t>
   </si>
   <si>
+    <t>/vesionbook-building-authority/api/v1/passauth/syn/detail/{id}</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-authority/api/v1/passauth/syn/export</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-authority/api/v1/passauth/syn/progress/export</t>
+  </si>
+  <si>
     <t>PUSH_EVENT_MESSAGE</t>
   </si>
   <si>
+    <t>/vesionbook-building-core/api/v1/message/event/detail/{id}</t>
+  </si>
+  <si>
+    <t>事件推送</t>
+  </si>
+  <si>
     <t>/vesionbook-building-core/api/v1/message/event/list</t>
   </si>
   <si>
-    <t>事件推送</t>
-  </si>
-  <si>
     <t>/vesionbook-building-core/api/v1/message/event/create</t>
   </si>
   <si>
@@ -439,12 +580,15 @@
     <t>UNIVERSAL_PUSH</t>
   </si>
   <si>
+    <t>/vesionbook-building-core/api/v1/push/select/detail</t>
+  </si>
+  <si>
+    <t>文字推送</t>
+  </si>
+  <si>
     <t>/vesionbook-building-core/api/v1/push/select/list</t>
   </si>
   <si>
-    <t>文字推送</t>
-  </si>
-  <si>
     <t>/vesionbook-building-core/api/v1/push/create</t>
   </si>
   <si>
@@ -457,12 +601,18 @@
     <t>PUSH_IMAGE_MESSAGE</t>
   </si>
   <si>
+    <t>/vesionbook-building-core/api/v1/message/image/selectDeviceList</t>
+  </si>
+  <si>
+    <t>图片推送</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-core/api/v1/message/image/detail/{id}</t>
+  </si>
+  <si>
     <t>/vesionbook-building-core/api/v1/message/image/list</t>
   </si>
   <si>
-    <t>图片推送</t>
-  </si>
-  <si>
     <t>/vesionbook-building-core/api/v1/message/image/create</t>
   </si>
   <si>
@@ -481,24 +631,78 @@
     <t>企业设置</t>
   </si>
   <si>
+    <t>/vesionbook-building-core/api/v1/comp/management/setup</t>
+  </si>
+  <si>
     <t>PERSONAL_ACCOUNT</t>
   </si>
   <si>
     <t>个人账号</t>
   </si>
   <si>
+    <t>/usercenter/version-book/account/updatePwd/{version}</t>
+  </si>
+  <si>
     <t>ACCOUNT_LOG</t>
   </si>
   <si>
+    <t>/usercenter/version-book/account/operateLog/list/{version}</t>
+  </si>
+  <si>
     <t>登录日志</t>
   </si>
   <si>
     <t>OPEN_API_APPLICATION</t>
   </si>
   <si>
+    <t>/vesionbook-building-core/api/v1/subscribe/faceCapture/mine</t>
+  </si>
+  <si>
     <t>开放平台</t>
   </si>
   <si>
+    <t>/vesionbook-building-core/api/v1/comp/management/account/detail</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-core/api/v1/authority/account/detail</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-core/api/v1/authority/account/detail/{id}</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-core/api/v1/authority/role/list</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-core/api/v1/authority/account/list</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-core/api/v1/authority/account/create</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-core/api/v1/authority/account/update</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-core/api/v1/authority/delete</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-core/api/v1/authority/export</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-core/api/v1/authority/role/detail/{id}</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-core/api/v1/authority/role/menus</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-core/api/v1/authority/role/create</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-core/api/v1/authority/role/update</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-core/api/v1/authority/role/delete</t>
+  </si>
+  <si>
     <t>MAP_SETTING</t>
   </si>
   <si>
@@ -508,6 +712,12 @@
     <t>地图设置</t>
   </si>
   <si>
+    <t>/vesionbook-building-core/api/v1/area/map/device/list/{id}</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-core/api/v1/area/map/detail/{id}</t>
+  </si>
+  <si>
     <t>/vesionbook-building-core/api/v1/area/create</t>
   </si>
   <si>
@@ -538,9 +748,24 @@
     <t>VISITOR_LIST</t>
   </si>
   <si>
+    <t>/vesionbook-building-core/api/v1/visitor/statistic</t>
+  </si>
+  <si>
     <t>访客列表</t>
   </si>
   <si>
+    <t>/vesionbook-building-core/api/v1/visitor/detail/{id}</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-core/api/v1/visitor/record/{id}</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-core/api/v1/visitor/list</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-device/api/v1/device/group/list</t>
+  </si>
+  <si>
     <t>/vesionbook-building-core/api/v1/visitor/create</t>
   </si>
   <si>
@@ -550,6 +775,9 @@
     <t>/vesionbook-building-core/api/v1/visitor/delete</t>
   </si>
   <si>
+    <t>/vesionbook-building-core/api/v1/visitor/export/{version}</t>
+  </si>
+  <si>
     <t>VERIFY_VISITOR</t>
   </si>
   <si>
@@ -559,6 +787,15 @@
     <t>访客审核</t>
   </si>
   <si>
+    <t>/vesionbook-building-core/api/v1/visitor/approval/statistic</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-core/api/v1/comp/management/listDevices</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-core/api/v1/visitor/approval</t>
+  </si>
+  <si>
     <t>IDENTITY_APPOINTMENT</t>
   </si>
   <si>
@@ -568,9 +805,18 @@
     <t>ATTENDANCE_SETTING</t>
   </si>
   <si>
+    <t>/vesionbook-building-core/api/v1/schedule/select/list</t>
+  </si>
+  <si>
     <t>考勤设置</t>
   </si>
   <si>
+    <t>/vesionbook-building-core/api/v1/att/select/list</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-core/api/v1/att/create</t>
+  </si>
+  <si>
     <t>/vesionbook-building-core/api/v1/att/update</t>
   </si>
   <si>
@@ -580,9 +826,6 @@
     <t>ATTENDANCE_SCHEDULE</t>
   </si>
   <si>
-    <t>/vesionbook-building-core/api/v1/schedule/select/list</t>
-  </si>
-  <si>
     <t>班次管理</t>
   </si>
   <si>
@@ -598,24 +841,51 @@
     <t>ATTENDANCE_STATISTICS</t>
   </si>
   <si>
+    <t>/vesionbook-building-core/api/v1/att/report/statistics</t>
+  </si>
+  <si>
     <t>考勤统计</t>
   </si>
   <si>
+    <t>/vesionbook-building-core/api/v1/att/report/statistics/detail</t>
+  </si>
+  <si>
     <t>export_detail</t>
   </si>
   <si>
+    <t>/vesionbook-building-core/api/v1/att/report/statistics/detail/export</t>
+  </si>
+  <si>
     <t>export_stats</t>
   </si>
   <si>
+    <t>/vesionbook-building-core/api/v1/att/report/statistics/export</t>
+  </si>
+  <si>
     <t>replace</t>
   </si>
   <si>
+    <t>/vesionbook-building-core/api/v1/att/report/statistics/detail/capture</t>
+  </si>
+  <si>
     <t>MEETING_LIST</t>
   </si>
   <si>
+    <t>/vesionbook-building-core/api/v1/meeting/conference/list</t>
+  </si>
+  <si>
     <t>会议列表</t>
   </si>
   <si>
+    <t>/vesionbook-building-core/api/v1/meeting/conference/detail/{conferenceId}</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-core/api/v1/meeting/conference/verify/{conferenceId}</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-core/api/v1/meeting/conference/export</t>
+  </si>
+  <si>
     <t>MEETING_ROOM_MANAGEMENT</t>
   </si>
   <si>
@@ -625,42 +895,72 @@
     <t>会议室管理</t>
   </si>
   <si>
+    <t>/vesionbook-building-core/api/v1/meeting/room/detail/{id}</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-core/api/v1/meeting/room/selectDeviceList</t>
+  </si>
+  <si>
     <t>/vesionbook-building-core/api/v1/meeting/room/create</t>
   </si>
   <si>
     <t>/vesionbook-building-core/api/v1/meeting/room/update/{id}</t>
   </si>
   <si>
+    <t>/vesionbook-building-core/api/v1/meeting/room/delete/{id}</t>
+  </si>
+  <si>
     <t>DEVICE_LIST</t>
   </si>
   <si>
+    <t>/vesionbook-building-device/api/device/detail/{deviceUniqueId}/{version}</t>
+  </si>
+  <si>
     <t>设备列表</t>
   </si>
   <si>
+    <t>/vesionbook-building-device/api/device/mix/insert/{version}</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-device/api/device/mix/update/{version}</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-core/api/v1/device/setting/get/{id}</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-core/api/v1/device/setting/setup</t>
+  </si>
+  <si>
     <t>reboot</t>
   </si>
   <si>
-    <t>detail</t>
+    <t>/vesionbook-building-device/api/device/restart/{id}/{version}</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-device/api/device/mix/delete/{deviceUniqueId}/{version}</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-device/api/device/mix/import/batch/campus/{version}</t>
   </si>
   <si>
     <t>open</t>
   </si>
   <si>
+    <t>/vesionbook-building-core/api/v1/device/single/open</t>
+  </si>
+  <si>
     <t>DEVICE_GROUP</t>
   </si>
   <si>
-    <t>/vesionbook-building-device/api/v1/device/group/list</t>
-  </si>
-  <si>
     <t>设备组</t>
   </si>
   <si>
+    <t>/vesionbook-building-device/api/v1/device/group/{id}</t>
+  </si>
+  <si>
     <t>/vesionbook-building-device/api/v1/device/group</t>
   </si>
   <si>
-    <t>/vesionbook-building-device/api/v1/device/group/{id}</t>
-  </si>
-  <si>
     <t>LIGHT_ROUND</t>
   </si>
   <si>
@@ -682,579 +982,34 @@
     <t>人员搜索</t>
   </si>
   <si>
-    <t>CANTEEN_MANAGEMENT</t>
-  </si>
-  <si>
-    <t>食堂管理</t>
-  </si>
-  <si>
-    <t>CANTEEN_STATISTICS</t>
-  </si>
-  <si>
-    <t>食堂统计</t>
-  </si>
-  <si>
-    <t>CANTEEN_ACCOUNT</t>
-  </si>
-  <si>
-    <t>食堂账号</t>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/authority/account/create</t>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/authority/account/update</t>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/authority/delete</t>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/authority/role/list</t>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/authority/role/create</t>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/authority/role/update</t>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/authority/role/delete</t>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/personnel/group/batch/insert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upload</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-authority/api/v1/passauth/syn/detail/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-authority/api/v1/passauth/syn/progress/export</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-authority/api/v1/passauth/syn/export</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-authority/api/v1/passrule/list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>query</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-authority/api/v1/passrule/detail/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-authority/api/v1/passrule/create</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-authority/api/v1/passrule/delete/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-authority/api/v1/passauth/list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-authority/api/v1/passauth/create</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-authority/api/v1/passauth/update/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-authority/api/v1/passauth/cancel/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-authority/api/v1/passauth/detail/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-device/api/v1/device/group/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/device/setting/get/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>setting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>setup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/device/setting/setup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/device/single/open</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/meeting/room/delete/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/meeting/room/detail/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/meeting/room/selectDeviceList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>device_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/meeting/conference/export</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/meeting/conference/list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/meeting/conference/detail/{conferenceId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>export</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/meeting/conference/verify/{conferenceId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/att/report/statistics/detail/export</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/att/report/statistics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/att/report/statistics/export</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/att/report/statistics/detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/att/report/statistics/detail/capture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/att/select/list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/att/create</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/schedule/select/list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>schedule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/visitor/approval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>verify</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/visitor/approval/statistic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>statistic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/visitor/statistic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/visitor/list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/visitor/detail/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/visitor/record/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>record</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/common/image/upload</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/authority/account/list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/authority/export</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/authority/account/detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/authority/account/detail/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/comp/management/account/detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/comp/management/setup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/message/image/selectDeviceList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/message/image/detail/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/push/select/detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/message/event/detail/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-authority/api/v1/passauth/temperory/list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>temperory_query</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-authority/api/v1/passauth/temperory/create</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>temperory_create</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-authority/api/v1/passauth/temperory/detail/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>temperory_detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-authority/api/v1/passauth/temperory/update/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>temperory_update</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-authority/api/v1/passauth/temperory/cancel/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>temperory_cancel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/person/group/relation/import/change</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/verify/person/select/list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/verify/person/process</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/verify/person/select/detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/verify/person/download/all</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/person/group/relation/node/person/list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/person/detail/select</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/person/batch/delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/passrecord/capture/person/detail/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/passrecord/capture/person/delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/passrecord/capture/stranger/monitor/list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/passrecord/capture/stranger/records</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stranger_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stranger_records</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stranger_export</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>COMMON_LIST</t>
+  </si>
+  <si>
+    <t>common</t>
+  </si>
+  <si>
+    <t>/vesionbook-building-device/api/device/type/list/{version}</t>
+  </si>
+  <si>
+    <t>公有菜单</t>
+  </si>
+  <si>
+    <t>HOLIDAY_ANALYSIS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>/vesionbook-building-core/api/v1/passrecord/capture/stranger/monitor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stranger_setting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/dashboard/passStat/{startTime}/{endTime}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>passstat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/dashboard/overview/conference</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/dashboard/overview/device</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/dashboard/overview/person</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/dashboard/overview/pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/dashboard/overview/visitor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/dashboard/visitor/overview/{date}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/dashboard/visitor/detail/{date}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-device/api/device/select/list/{version}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-device/api/device/mix/insert/{version}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-device/api/device/mix/update/{version}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-device/api/device/mix/delete/{deviceUniqueId}/{version}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-device/api/device/type/list/{version}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-device/api/device/mix/import/batch/campus/{version}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-device/api/device/detail/{deviceUniqueId}/{version}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/visitor/export/{version}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/usercenter/version-book/account/operateLog/list/{version}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/person/custom/export/{version}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/passrecord/capture/person/export/{version}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/passrecord/capture/stranger/export/{version}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/usercenter/version-book/account/updatePwd/{version}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-device/api/device/restart/{id}/{version}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/dashboard/att/{startTime}/{endTime}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/dashboard/overview/att</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/dashboard/deviceRankStat/ofDay/{startTime}/{endTime}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/dashboard/meetingRoom/queryStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/vesionbook-building-core/api/v1/dashboard/meetingRoom/queryEveryDay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>conference</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>att</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>device</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>person</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>visitor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>att_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rankstat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common_upload</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MANAGEMENT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1262,9 +1017,9 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1288,10 +1043,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1606,20 +1360,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F326"/>
+  <dimension ref="A1:F344"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="D172" sqref="D172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="90.140625" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="44.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="71.42578125" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1901,8 +1654,8 @@
       <c r="A17">
         <v>18</v>
       </c>
-      <c r="B17" t="s">
-        <v>22</v>
+      <c r="B17" s="1" t="s">
+        <v>324</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
@@ -2325,8 +2078,8 @@
       <c r="B43" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>240</v>
+      <c r="C43" t="s">
+        <v>7</v>
       </c>
       <c r="E43" t="s">
         <v>56</v>
@@ -4178,8 +3931,8 @@
       <c r="B152" t="s">
         <v>87</v>
       </c>
-      <c r="C152" s="1" t="s">
-        <v>314</v>
+      <c r="C152" t="s">
+        <v>41</v>
       </c>
       <c r="E152" t="s">
         <v>88</v>
@@ -4195,14 +3948,14 @@
       <c r="B153" t="s">
         <v>89</v>
       </c>
-      <c r="C153" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>346</v>
+      <c r="C153" t="s">
+        <v>7</v>
+      </c>
+      <c r="D153" t="s">
+        <v>90</v>
       </c>
       <c r="E153" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F153">
         <v>1</v>
@@ -4215,14 +3968,14 @@
       <c r="B154" t="s">
         <v>89</v>
       </c>
-      <c r="C154" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>322</v>
+      <c r="C154" t="s">
+        <v>7</v>
+      </c>
+      <c r="D154" t="s">
+        <v>92</v>
       </c>
       <c r="E154" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F154">
         <v>1</v>
@@ -4235,14 +3988,14 @@
       <c r="B155" t="s">
         <v>89</v>
       </c>
-      <c r="C155" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>324</v>
+      <c r="C155" t="s">
+        <v>7</v>
+      </c>
+      <c r="D155" t="s">
+        <v>93</v>
       </c>
       <c r="E155" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F155">
         <v>1</v>
@@ -4255,14 +4008,14 @@
       <c r="B156" t="s">
         <v>89</v>
       </c>
-      <c r="C156" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>325</v>
+      <c r="C156" t="s">
+        <v>7</v>
+      </c>
+      <c r="D156" t="s">
+        <v>94</v>
       </c>
       <c r="E156" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F156">
         <v>1</v>
@@ -4275,14 +4028,14 @@
       <c r="B157" t="s">
         <v>89</v>
       </c>
-      <c r="C157" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>326</v>
+      <c r="C157" t="s">
+        <v>7</v>
+      </c>
+      <c r="D157" t="s">
+        <v>95</v>
       </c>
       <c r="E157" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F157">
         <v>1</v>
@@ -4295,14 +4048,14 @@
       <c r="B158" t="s">
         <v>89</v>
       </c>
-      <c r="C158" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>327</v>
+      <c r="C158" t="s">
+        <v>7</v>
+      </c>
+      <c r="D158" t="s">
+        <v>96</v>
       </c>
       <c r="E158" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F158">
         <v>1</v>
@@ -4315,14 +4068,14 @@
       <c r="B159" t="s">
         <v>89</v>
       </c>
-      <c r="C159" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>328</v>
+      <c r="C159" t="s">
+        <v>7</v>
+      </c>
+      <c r="D159" t="s">
+        <v>97</v>
       </c>
       <c r="E159" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F159">
         <v>1</v>
@@ -4335,14 +4088,14 @@
       <c r="B160" t="s">
         <v>89</v>
       </c>
-      <c r="C160" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>329</v>
+      <c r="C160" t="s">
+        <v>7</v>
+      </c>
+      <c r="D160" t="s">
+        <v>98</v>
       </c>
       <c r="E160" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F160">
         <v>1</v>
@@ -4355,14 +4108,14 @@
       <c r="B161" t="s">
         <v>89</v>
       </c>
-      <c r="C161" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>330</v>
+      <c r="C161" t="s">
+        <v>7</v>
+      </c>
+      <c r="D161" t="s">
+        <v>99</v>
       </c>
       <c r="E161" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F161">
         <v>1</v>
@@ -4375,14 +4128,14 @@
       <c r="B162" t="s">
         <v>89</v>
       </c>
-      <c r="C162" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>345</v>
+      <c r="C162" t="s">
+        <v>7</v>
+      </c>
+      <c r="D162" t="s">
+        <v>100</v>
       </c>
       <c r="E162" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F162">
         <v>1</v>
@@ -4395,14 +4148,14 @@
       <c r="B163" t="s">
         <v>89</v>
       </c>
-      <c r="C163" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>347</v>
+      <c r="C163" t="s">
+        <v>7</v>
+      </c>
+      <c r="D163" t="s">
+        <v>101</v>
       </c>
       <c r="E163" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F163">
         <v>1</v>
@@ -4415,14 +4168,14 @@
       <c r="B164" t="s">
         <v>89</v>
       </c>
-      <c r="C164" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>348</v>
+      <c r="C164" t="s">
+        <v>7</v>
+      </c>
+      <c r="D164" t="s">
+        <v>102</v>
       </c>
       <c r="E164" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F164">
         <v>1</v>
@@ -4435,14 +4188,14 @@
       <c r="B165" t="s">
         <v>89</v>
       </c>
-      <c r="C165" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>349</v>
+      <c r="C165" t="s">
+        <v>7</v>
+      </c>
+      <c r="D165" t="s">
+        <v>103</v>
       </c>
       <c r="E165" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F165">
         <v>1</v>
@@ -4450,19 +4203,19 @@
     </row>
     <row r="166" spans="1:6">
       <c r="A166">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="B166" t="s">
+        <v>89</v>
+      </c>
+      <c r="C166" t="s">
+        <v>7</v>
+      </c>
+      <c r="D166" t="s">
+        <v>104</v>
+      </c>
+      <c r="E166" t="s">
         <v>91</v>
-      </c>
-      <c r="C166" t="s">
-        <v>7</v>
-      </c>
-      <c r="D166" t="s">
-        <v>92</v>
-      </c>
-      <c r="E166" t="s">
-        <v>93</v>
       </c>
       <c r="F166">
         <v>1</v>
@@ -4470,19 +4223,19 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="B167" t="s">
+        <v>89</v>
+      </c>
+      <c r="C167" t="s">
+        <v>7</v>
+      </c>
+      <c r="D167" t="s">
+        <v>105</v>
+      </c>
+      <c r="E167" t="s">
         <v>91</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E167" t="s">
-        <v>93</v>
       </c>
       <c r="F167">
         <v>1</v>
@@ -4493,16 +4246,16 @@
         <v>10002</v>
       </c>
       <c r="B168" t="s">
-        <v>91</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>313</v>
+        <v>106</v>
+      </c>
+      <c r="C168" t="s">
+        <v>7</v>
+      </c>
+      <c r="D168" t="s">
+        <v>107</v>
       </c>
       <c r="E168" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="F168">
         <v>1</v>
@@ -4513,16 +4266,16 @@
         <v>10002</v>
       </c>
       <c r="B169" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>341</v>
+        <v>7</v>
+      </c>
+      <c r="D169" t="s">
+        <v>109</v>
       </c>
       <c r="E169" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="F169">
         <v>1</v>
@@ -4533,13 +4286,16 @@
         <v>10002</v>
       </c>
       <c r="B170" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="C170" t="s">
-        <v>94</v>
+        <v>41</v>
+      </c>
+      <c r="D170" t="s">
+        <v>110</v>
       </c>
       <c r="E170" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="F170">
         <v>1</v>
@@ -4550,16 +4306,16 @@
         <v>10002</v>
       </c>
       <c r="B171" t="s">
-        <v>91</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>316</v>
+        <v>106</v>
+      </c>
+      <c r="C171" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" t="s">
+        <v>111</v>
       </c>
       <c r="E171" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="F171">
         <v>1</v>
@@ -4570,16 +4326,13 @@
         <v>10002</v>
       </c>
       <c r="B172" t="s">
-        <v>91</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>320</v>
+        <v>106</v>
+      </c>
+      <c r="C172" t="s">
+        <v>112</v>
       </c>
       <c r="E172" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="F172">
         <v>1</v>
@@ -4590,16 +4343,16 @@
         <v>10002</v>
       </c>
       <c r="B173" t="s">
-        <v>91</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>315</v>
+        <v>106</v>
+      </c>
+      <c r="C173" t="s">
+        <v>7</v>
+      </c>
+      <c r="D173" t="s">
+        <v>113</v>
       </c>
       <c r="E173" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="F173">
         <v>1</v>
@@ -4610,16 +4363,16 @@
         <v>10002</v>
       </c>
       <c r="B174" t="s">
-        <v>91</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>319</v>
+        <v>106</v>
+      </c>
+      <c r="C174" t="s">
+        <v>7</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="E174" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="F174">
         <v>1</v>
@@ -4627,19 +4380,19 @@
     </row>
     <row r="175" spans="1:6">
       <c r="A175">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="B175" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C175" t="s">
         <v>7</v>
       </c>
       <c r="D175" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="E175" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="F175">
         <v>1</v>
@@ -4647,19 +4400,19 @@
     </row>
     <row r="176" spans="1:6">
       <c r="A176">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="B176" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C176" t="s">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="E176" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="F176">
         <v>1</v>
@@ -4667,19 +4420,19 @@
     </row>
     <row r="177" spans="1:6">
       <c r="A177">
-        <v>10101</v>
+        <v>10003</v>
       </c>
       <c r="B177" t="s">
-        <v>100</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>310</v>
+        <v>116</v>
+      </c>
+      <c r="C177" t="s">
+        <v>7</v>
+      </c>
+      <c r="D177" t="s">
+        <v>117</v>
       </c>
       <c r="E177" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="F177">
         <v>1</v>
@@ -4687,19 +4440,19 @@
     </row>
     <row r="178" spans="1:6">
       <c r="A178">
-        <v>10101</v>
+        <v>10003</v>
       </c>
       <c r="B178" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="C178" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="D178" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="E178" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="F178">
         <v>1</v>
@@ -4710,13 +4463,13 @@
         <v>10101</v>
       </c>
       <c r="B179" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="C179" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="D179" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="E179" t="s">
         <v>70</v>
@@ -4730,13 +4483,13 @@
         <v>10101</v>
       </c>
       <c r="B180" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="C180" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="D180" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E180" t="s">
         <v>70</v>
@@ -4750,13 +4503,13 @@
         <v>10101</v>
       </c>
       <c r="B181" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="C181" t="s">
-        <v>41</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>311</v>
+        <v>7</v>
+      </c>
+      <c r="D181" t="s">
+        <v>123</v>
       </c>
       <c r="E181" t="s">
         <v>70</v>
@@ -4770,13 +4523,13 @@
         <v>10101</v>
       </c>
       <c r="B182" t="s">
-        <v>100</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>340</v>
+        <v>121</v>
+      </c>
+      <c r="C182" t="s">
+        <v>39</v>
+      </c>
+      <c r="D182" t="s">
+        <v>124</v>
       </c>
       <c r="E182" t="s">
         <v>70</v>
@@ -4790,13 +4543,13 @@
         <v>10101</v>
       </c>
       <c r="B183" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="C183" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="D183" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="E183" t="s">
         <v>70</v>
@@ -4810,13 +4563,13 @@
         <v>10101</v>
       </c>
       <c r="B184" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="C184" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="D184" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="E184" t="s">
         <v>70</v>
@@ -4827,19 +4580,19 @@
     </row>
     <row r="185" spans="1:6">
       <c r="A185">
-        <v>10102</v>
+        <v>10101</v>
       </c>
       <c r="B185" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="C185" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="E185" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="F185">
         <v>1</v>
@@ -4847,19 +4600,19 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186">
-        <v>10102</v>
+        <v>10101</v>
       </c>
       <c r="B186" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="C186" t="s">
-        <v>7</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>309</v>
+        <v>128</v>
+      </c>
+      <c r="D186" t="s">
+        <v>129</v>
       </c>
       <c r="E186" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="F186">
         <v>1</v>
@@ -4867,19 +4620,19 @@
     </row>
     <row r="187" spans="1:6">
       <c r="A187">
-        <v>10102</v>
+        <v>10101</v>
       </c>
       <c r="B187" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="C187" t="s">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="D187" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="E187" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="F187">
         <v>1</v>
@@ -4890,16 +4643,16 @@
         <v>10102</v>
       </c>
       <c r="B188" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="C188" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="D188" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E188" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="F188">
         <v>1</v>
@@ -4910,16 +4663,16 @@
         <v>10102</v>
       </c>
       <c r="B189" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="C189" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="D189" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="E189" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="F189">
         <v>1</v>
@@ -4930,16 +4683,16 @@
         <v>10102</v>
       </c>
       <c r="B190" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="C190" t="s">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="D190" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E190" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="F190">
         <v>1</v>
@@ -4950,16 +4703,16 @@
         <v>10102</v>
       </c>
       <c r="B191" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="C191" t="s">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="D191" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="E191" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="F191">
         <v>1</v>
@@ -4970,16 +4723,16 @@
         <v>10102</v>
       </c>
       <c r="B192" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="C192" t="s">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="D192" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="E192" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="F192">
         <v>1</v>
@@ -4990,16 +4743,16 @@
         <v>10102</v>
       </c>
       <c r="B193" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="C193" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="D193" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="E193" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="F193">
         <v>1</v>
@@ -5010,16 +4763,16 @@
         <v>10102</v>
       </c>
       <c r="B194" t="s">
-        <v>108</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>233</v>
+        <v>131</v>
+      </c>
+      <c r="C194" t="s">
+        <v>139</v>
+      </c>
+      <c r="D194" t="s">
+        <v>140</v>
       </c>
       <c r="E194" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="F194">
         <v>1</v>
@@ -5030,16 +4783,16 @@
         <v>10102</v>
       </c>
       <c r="B195" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="C195" t="s">
-        <v>98</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>304</v>
+        <v>141</v>
+      </c>
+      <c r="D195" t="s">
+        <v>142</v>
       </c>
       <c r="E195" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="F195">
         <v>1</v>
@@ -5047,19 +4800,19 @@
     </row>
     <row r="196" spans="1:6">
       <c r="A196">
-        <v>10103</v>
+        <v>10102</v>
       </c>
       <c r="B196" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C196" t="s">
-        <v>7</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>305</v>
+        <v>143</v>
+      </c>
+      <c r="D196" t="s">
+        <v>144</v>
       </c>
       <c r="E196" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="F196">
         <v>1</v>
@@ -5067,19 +4820,19 @@
     </row>
     <row r="197" spans="1:6">
       <c r="A197">
-        <v>10103</v>
+        <v>10102</v>
       </c>
       <c r="B197" t="s">
-        <v>122</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>307</v>
+        <v>131</v>
+      </c>
+      <c r="C197" t="s">
+        <v>39</v>
+      </c>
+      <c r="D197" t="s">
+        <v>145</v>
       </c>
       <c r="E197" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="F197">
         <v>1</v>
@@ -5087,19 +4840,19 @@
     </row>
     <row r="198" spans="1:6">
       <c r="A198">
-        <v>10103</v>
+        <v>10102</v>
       </c>
       <c r="B198" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C198" t="s">
-        <v>124</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>306</v>
+        <v>119</v>
+      </c>
+      <c r="D198" t="s">
+        <v>146</v>
       </c>
       <c r="E198" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="F198">
         <v>1</v>
@@ -5110,16 +4863,16 @@
         <v>10103</v>
       </c>
       <c r="B199" t="s">
-        <v>122</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>308</v>
+        <v>147</v>
+      </c>
+      <c r="C199" t="s">
+        <v>7</v>
+      </c>
+      <c r="D199" t="s">
+        <v>148</v>
       </c>
       <c r="E199" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="F199">
         <v>1</v>
@@ -5127,19 +4880,19 @@
     </row>
     <row r="200" spans="1:6">
       <c r="A200">
-        <v>10201</v>
+        <v>10103</v>
       </c>
       <c r="B200" t="s">
-        <v>125</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>244</v>
+        <v>147</v>
+      </c>
+      <c r="C200" t="s">
+        <v>7</v>
+      </c>
+      <c r="D200" t="s">
+        <v>150</v>
       </c>
       <c r="E200" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="F200">
         <v>1</v>
@@ -5147,19 +4900,19 @@
     </row>
     <row r="201" spans="1:6">
       <c r="A201">
-        <v>10201</v>
+        <v>10103</v>
       </c>
       <c r="B201" t="s">
-        <v>125</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>248</v>
+        <v>147</v>
+      </c>
+      <c r="C201" t="s">
+        <v>151</v>
+      </c>
+      <c r="D201" t="s">
+        <v>152</v>
       </c>
       <c r="E201" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="F201">
         <v>1</v>
@@ -5167,19 +4920,19 @@
     </row>
     <row r="202" spans="1:6">
       <c r="A202">
-        <v>10201</v>
+        <v>10103</v>
       </c>
       <c r="B202" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="C202" t="s">
-        <v>39</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>245</v>
+        <v>7</v>
+      </c>
+      <c r="D202" t="s">
+        <v>153</v>
       </c>
       <c r="E202" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="F202">
         <v>1</v>
@@ -5190,16 +4943,16 @@
         <v>10201</v>
       </c>
       <c r="B203" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="C203" t="s">
-        <v>40</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>246</v>
+        <v>7</v>
+      </c>
+      <c r="D203" t="s">
+        <v>155</v>
       </c>
       <c r="E203" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="F203">
         <v>1</v>
@@ -5210,16 +4963,16 @@
         <v>10201</v>
       </c>
       <c r="B204" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="C204" t="s">
-        <v>41</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>247</v>
+        <v>7</v>
+      </c>
+      <c r="D204" t="s">
+        <v>157</v>
       </c>
       <c r="E204" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="F204">
         <v>1</v>
@@ -5230,16 +4983,16 @@
         <v>10201</v>
       </c>
       <c r="B205" t="s">
-        <v>125</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D205" s="1" t="s">
-        <v>294</v>
+        <v>154</v>
+      </c>
+      <c r="C205" t="s">
+        <v>7</v>
+      </c>
+      <c r="D205" t="s">
+        <v>104</v>
       </c>
       <c r="E205" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="F205">
         <v>1</v>
@@ -5250,16 +5003,16 @@
         <v>10201</v>
       </c>
       <c r="B206" t="s">
-        <v>125</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D206" s="1" t="s">
-        <v>298</v>
+        <v>154</v>
+      </c>
+      <c r="C206" t="s">
+        <v>7</v>
+      </c>
+      <c r="D206" t="s">
+        <v>105</v>
       </c>
       <c r="E206" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="F206">
         <v>1</v>
@@ -5270,16 +5023,16 @@
         <v>10201</v>
       </c>
       <c r="B207" t="s">
-        <v>125</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>296</v>
+        <v>154</v>
+      </c>
+      <c r="C207" t="s">
+        <v>7</v>
+      </c>
+      <c r="D207" t="s">
+        <v>158</v>
       </c>
       <c r="E207" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="F207">
         <v>1</v>
@@ -5290,16 +5043,16 @@
         <v>10201</v>
       </c>
       <c r="B208" t="s">
-        <v>125</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>300</v>
+        <v>154</v>
+      </c>
+      <c r="C208" t="s">
+        <v>39</v>
+      </c>
+      <c r="D208" t="s">
+        <v>159</v>
       </c>
       <c r="E208" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="F208">
         <v>1</v>
@@ -5310,16 +5063,16 @@
         <v>10201</v>
       </c>
       <c r="B209" t="s">
-        <v>125</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>302</v>
+        <v>154</v>
+      </c>
+      <c r="C209" t="s">
+        <v>40</v>
+      </c>
+      <c r="D209" t="s">
+        <v>160</v>
       </c>
       <c r="E209" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="F209">
         <v>1</v>
@@ -5327,19 +5080,19 @@
     </row>
     <row r="210" spans="1:6">
       <c r="A210">
-        <v>10202</v>
+        <v>10201</v>
       </c>
       <c r="B210" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="C210" t="s">
-        <v>7</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>238</v>
+        <v>41</v>
+      </c>
+      <c r="D210" t="s">
+        <v>161</v>
       </c>
       <c r="E210" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="F210">
         <v>1</v>
@@ -5347,19 +5100,19 @@
     </row>
     <row r="211" spans="1:6">
       <c r="A211">
-        <v>10202</v>
+        <v>10201</v>
       </c>
       <c r="B211" t="s">
-        <v>127</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D211" s="1" t="s">
-        <v>241</v>
+        <v>154</v>
+      </c>
+      <c r="C211" t="s">
+        <v>7</v>
+      </c>
+      <c r="D211" t="s">
+        <v>162</v>
       </c>
       <c r="E211" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="F211">
         <v>1</v>
@@ -5367,19 +5120,19 @@
     </row>
     <row r="212" spans="1:6">
       <c r="A212">
-        <v>10202</v>
+        <v>10201</v>
       </c>
       <c r="B212" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="C212" t="s">
-        <v>39</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>242</v>
+        <v>7</v>
+      </c>
+      <c r="D212" t="s">
+        <v>163</v>
       </c>
       <c r="E212" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="F212">
         <v>1</v>
@@ -5387,19 +5140,19 @@
     </row>
     <row r="213" spans="1:6">
       <c r="A213">
-        <v>10202</v>
+        <v>10201</v>
       </c>
       <c r="B213" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="C213" t="s">
-        <v>41</v>
-      </c>
-      <c r="D213" s="1" t="s">
-        <v>243</v>
+        <v>39</v>
+      </c>
+      <c r="D213" t="s">
+        <v>164</v>
       </c>
       <c r="E213" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="F213">
         <v>1</v>
@@ -5407,19 +5160,19 @@
     </row>
     <row r="214" spans="1:6">
       <c r="A214">
-        <v>10203</v>
+        <v>10201</v>
       </c>
       <c r="B214" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="C214" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D214" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="E214" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="F214">
         <v>1</v>
@@ -5427,19 +5180,19 @@
     </row>
     <row r="215" spans="1:6">
       <c r="A215">
-        <v>10203</v>
+        <v>10201</v>
       </c>
       <c r="B215" t="s">
-        <v>129</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D215" s="1" t="s">
-        <v>235</v>
+        <v>154</v>
+      </c>
+      <c r="C215" t="s">
+        <v>41</v>
+      </c>
+      <c r="D215" t="s">
+        <v>166</v>
       </c>
       <c r="E215" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="F215">
         <v>1</v>
@@ -5447,19 +5200,19 @@
     </row>
     <row r="216" spans="1:6">
       <c r="A216">
-        <v>10203</v>
+        <v>10202</v>
       </c>
       <c r="B216" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="C216" t="s">
-        <v>9</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>237</v>
+        <v>7</v>
+      </c>
+      <c r="D216" t="s">
+        <v>157</v>
       </c>
       <c r="E216" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="F216">
         <v>1</v>
@@ -5467,19 +5220,19 @@
     </row>
     <row r="217" spans="1:6">
       <c r="A217">
-        <v>10203</v>
+        <v>10202</v>
       </c>
       <c r="B217" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="C217" t="s">
-        <v>9</v>
-      </c>
-      <c r="D217" s="1" t="s">
-        <v>236</v>
+        <v>7</v>
+      </c>
+      <c r="D217" t="s">
+        <v>169</v>
       </c>
       <c r="E217" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="F217">
         <v>1</v>
@@ -5487,16 +5240,19 @@
     </row>
     <row r="218" spans="1:6">
       <c r="A218">
-        <v>10203</v>
+        <v>10202</v>
       </c>
       <c r="B218" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="C218" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="D218" t="s">
+        <v>170</v>
       </c>
       <c r="E218" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="F218">
         <v>1</v>
@@ -5504,19 +5260,19 @@
     </row>
     <row r="219" spans="1:6">
       <c r="A219">
-        <v>10301</v>
+        <v>10202</v>
       </c>
       <c r="B219" t="s">
-        <v>132</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D219" s="1" t="s">
-        <v>293</v>
+        <v>167</v>
+      </c>
+      <c r="C219" t="s">
+        <v>41</v>
+      </c>
+      <c r="D219" t="s">
+        <v>171</v>
       </c>
       <c r="E219" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="F219">
         <v>1</v>
@@ -5524,19 +5280,19 @@
     </row>
     <row r="220" spans="1:6">
       <c r="A220">
-        <v>10301</v>
+        <v>10203</v>
       </c>
       <c r="B220" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="C220" t="s">
         <v>7</v>
       </c>
       <c r="D220" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="E220" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="F220">
         <v>1</v>
@@ -5544,19 +5300,19 @@
     </row>
     <row r="221" spans="1:6">
       <c r="A221">
-        <v>10301</v>
+        <v>10203</v>
       </c>
       <c r="B221" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="C221" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="D221" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="E221" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="F221">
         <v>1</v>
@@ -5564,19 +5320,19 @@
     </row>
     <row r="222" spans="1:6">
       <c r="A222">
-        <v>10301</v>
+        <v>10203</v>
       </c>
       <c r="B222" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="C222" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D222" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="E222" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="F222">
         <v>1</v>
@@ -5584,19 +5340,19 @@
     </row>
     <row r="223" spans="1:6">
       <c r="A223">
-        <v>10301</v>
+        <v>10203</v>
       </c>
       <c r="B223" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="C223" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D223" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="E223" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="F223">
         <v>1</v>
@@ -5604,19 +5360,16 @@
     </row>
     <row r="224" spans="1:6">
       <c r="A224">
-        <v>10302</v>
+        <v>10203</v>
       </c>
       <c r="B224" t="s">
-        <v>138</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D224" s="1" t="s">
-        <v>292</v>
+        <v>172</v>
+      </c>
+      <c r="C224" t="s">
+        <v>41</v>
       </c>
       <c r="E224" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="F224">
         <v>1</v>
@@ -5624,19 +5377,19 @@
     </row>
     <row r="225" spans="1:6">
       <c r="A225">
-        <v>10302</v>
+        <v>10301</v>
       </c>
       <c r="B225" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="C225" t="s">
         <v>7</v>
       </c>
       <c r="D225" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="E225" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="F225">
         <v>1</v>
@@ -5644,19 +5397,19 @@
     </row>
     <row r="226" spans="1:6">
       <c r="A226">
-        <v>10302</v>
+        <v>10301</v>
       </c>
       <c r="B226" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="C226" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="D226" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="E226" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="F226">
         <v>1</v>
@@ -5664,19 +5417,19 @@
     </row>
     <row r="227" spans="1:6">
       <c r="A227">
-        <v>10302</v>
+        <v>10301</v>
       </c>
       <c r="B227" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="C227" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="D227" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="E227" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="F227">
         <v>1</v>
@@ -5684,19 +5437,19 @@
     </row>
     <row r="228" spans="1:6">
       <c r="A228">
-        <v>10302</v>
+        <v>10301</v>
       </c>
       <c r="B228" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="C228" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="D228" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="E228" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="F228">
         <v>1</v>
@@ -5704,19 +5457,19 @@
     </row>
     <row r="229" spans="1:6">
       <c r="A229">
-        <v>10303</v>
+        <v>10301</v>
       </c>
       <c r="B229" t="s">
-        <v>144</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D229" s="1" t="s">
-        <v>290</v>
+        <v>178</v>
+      </c>
+      <c r="C229" t="s">
+        <v>39</v>
+      </c>
+      <c r="D229" t="s">
+        <v>182</v>
       </c>
       <c r="E229" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="F229">
         <v>1</v>
@@ -5724,19 +5477,19 @@
     </row>
     <row r="230" spans="1:6">
       <c r="A230">
-        <v>10303</v>
+        <v>10301</v>
       </c>
       <c r="B230" t="s">
-        <v>144</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>291</v>
+        <v>178</v>
+      </c>
+      <c r="C230" t="s">
+        <v>40</v>
+      </c>
+      <c r="D230" t="s">
+        <v>183</v>
       </c>
       <c r="E230" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="F230">
         <v>1</v>
@@ -5744,19 +5497,19 @@
     </row>
     <row r="231" spans="1:6">
       <c r="A231">
-        <v>10303</v>
+        <v>10301</v>
       </c>
       <c r="B231" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="C231" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="D231" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="E231" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="F231">
         <v>1</v>
@@ -5764,19 +5517,19 @@
     </row>
     <row r="232" spans="1:6">
       <c r="A232">
-        <v>10303</v>
+        <v>10302</v>
       </c>
       <c r="B232" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="C232" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="D232" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="E232" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="F232">
         <v>1</v>
@@ -5784,19 +5537,19 @@
     </row>
     <row r="233" spans="1:6">
       <c r="A233">
-        <v>10303</v>
+        <v>10302</v>
       </c>
       <c r="B233" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="C233" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="D233" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="E233" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="F233">
         <v>1</v>
@@ -5804,19 +5557,19 @@
     </row>
     <row r="234" spans="1:6">
       <c r="A234">
-        <v>10303</v>
+        <v>10302</v>
       </c>
       <c r="B234" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="C234" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="D234" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="E234" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="F234">
         <v>1</v>
@@ -5824,19 +5577,19 @@
     </row>
     <row r="235" spans="1:6">
       <c r="A235">
-        <v>10402</v>
+        <v>10302</v>
       </c>
       <c r="B235" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="C235" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="D235" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="E235" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="F235">
         <v>1</v>
@@ -5844,19 +5597,19 @@
     </row>
     <row r="236" spans="1:6">
       <c r="A236">
-        <v>10402</v>
+        <v>10302</v>
       </c>
       <c r="B236" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="C236" t="s">
         <v>40</v>
       </c>
-      <c r="D236" s="1" t="s">
-        <v>289</v>
+      <c r="D236" t="s">
+        <v>190</v>
       </c>
       <c r="E236" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="F236">
         <v>1</v>
@@ -5864,16 +5617,19 @@
     </row>
     <row r="237" spans="1:6">
       <c r="A237">
-        <v>10403</v>
+        <v>10302</v>
       </c>
       <c r="B237" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="C237" t="s">
-        <v>7</v>
+        <v>41</v>
+      </c>
+      <c r="D237" t="s">
+        <v>191</v>
       </c>
       <c r="E237" t="s">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="F237">
         <v>1</v>
@@ -5881,19 +5637,19 @@
     </row>
     <row r="238" spans="1:6">
       <c r="A238">
-        <v>10403</v>
+        <v>10303</v>
       </c>
       <c r="B238" t="s">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="C238" t="s">
-        <v>40</v>
-      </c>
-      <c r="D238" s="1" t="s">
-        <v>343</v>
+        <v>7</v>
+      </c>
+      <c r="D238" t="s">
+        <v>193</v>
       </c>
       <c r="E238" t="s">
-        <v>154</v>
+        <v>194</v>
       </c>
       <c r="F238">
         <v>1</v>
@@ -5901,19 +5657,19 @@
     </row>
     <row r="239" spans="1:6">
       <c r="A239">
-        <v>10404</v>
+        <v>10303</v>
       </c>
       <c r="B239" t="s">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c r="C239" t="s">
         <v>7</v>
       </c>
-      <c r="D239" s="1" t="s">
-        <v>339</v>
+      <c r="D239" t="s">
+        <v>195</v>
       </c>
       <c r="E239" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
       <c r="F239">
         <v>1</v>
@@ -5921,19 +5677,19 @@
     </row>
     <row r="240" spans="1:6">
       <c r="A240">
-        <v>10405</v>
+        <v>10303</v>
       </c>
       <c r="B240" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="C240" t="s">
         <v>7</v>
       </c>
-      <c r="D240" s="1" t="s">
-        <v>288</v>
+      <c r="D240" t="s">
+        <v>196</v>
       </c>
       <c r="E240" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="F240">
         <v>1</v>
@@ -5941,19 +5697,19 @@
     </row>
     <row r="241" spans="1:6">
       <c r="A241">
-        <v>10406</v>
+        <v>10303</v>
       </c>
       <c r="B241" t="s">
-        <v>44</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D241" s="1" t="s">
-        <v>286</v>
+        <v>192</v>
+      </c>
+      <c r="C241" t="s">
+        <v>7</v>
+      </c>
+      <c r="D241" t="s">
+        <v>104</v>
       </c>
       <c r="E241" t="s">
-        <v>45</v>
+        <v>194</v>
       </c>
       <c r="F241">
         <v>1</v>
@@ -5961,19 +5717,19 @@
     </row>
     <row r="242" spans="1:6">
       <c r="A242">
-        <v>10406</v>
+        <v>10303</v>
       </c>
       <c r="B242" t="s">
-        <v>44</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D242" s="1" t="s">
-        <v>287</v>
+        <v>192</v>
+      </c>
+      <c r="C242" t="s">
+        <v>39</v>
+      </c>
+      <c r="D242" t="s">
+        <v>197</v>
       </c>
       <c r="E242" t="s">
-        <v>45</v>
+        <v>194</v>
       </c>
       <c r="F242">
         <v>1</v>
@@ -5981,19 +5737,19 @@
     </row>
     <row r="243" spans="1:6">
       <c r="A243">
-        <v>10406</v>
+        <v>10303</v>
       </c>
       <c r="B243" t="s">
-        <v>44</v>
+        <v>192</v>
       </c>
       <c r="C243" t="s">
-        <v>7</v>
-      </c>
-      <c r="D243" s="1" t="s">
-        <v>284</v>
+        <v>40</v>
+      </c>
+      <c r="D243" t="s">
+        <v>198</v>
       </c>
       <c r="E243" t="s">
-        <v>45</v>
+        <v>194</v>
       </c>
       <c r="F243">
         <v>1</v>
@@ -6001,19 +5757,19 @@
     </row>
     <row r="244" spans="1:6">
       <c r="A244">
-        <v>10406</v>
+        <v>10303</v>
       </c>
       <c r="B244" t="s">
-        <v>44</v>
+        <v>192</v>
       </c>
       <c r="C244" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D244" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="E244" t="s">
-        <v>45</v>
+        <v>194</v>
       </c>
       <c r="F244">
         <v>1</v>
@@ -6021,19 +5777,19 @@
     </row>
     <row r="245" spans="1:6">
       <c r="A245">
-        <v>10406</v>
+        <v>10402</v>
       </c>
       <c r="B245" t="s">
-        <v>44</v>
+        <v>200</v>
       </c>
       <c r="C245" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="D245" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="E245" t="s">
-        <v>45</v>
+        <v>202</v>
       </c>
       <c r="F245">
         <v>1</v>
@@ -6041,19 +5797,19 @@
     </row>
     <row r="246" spans="1:6">
       <c r="A246">
-        <v>10406</v>
+        <v>10402</v>
       </c>
       <c r="B246" t="s">
-        <v>44</v>
+        <v>200</v>
       </c>
       <c r="C246" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="D246" t="s">
-        <v>228</v>
+        <v>104</v>
       </c>
       <c r="E246" t="s">
-        <v>45</v>
+        <v>202</v>
       </c>
       <c r="F246">
         <v>1</v>
@@ -6061,19 +5817,19 @@
     </row>
     <row r="247" spans="1:6">
       <c r="A247">
-        <v>10406</v>
+        <v>10402</v>
       </c>
       <c r="B247" t="s">
-        <v>44</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D247" s="1" t="s">
-        <v>285</v>
+        <v>200</v>
+      </c>
+      <c r="C247" t="s">
+        <v>40</v>
+      </c>
+      <c r="D247" t="s">
+        <v>203</v>
       </c>
       <c r="E247" t="s">
-        <v>45</v>
+        <v>202</v>
       </c>
       <c r="F247">
         <v>1</v>
@@ -6081,79 +5837,76 @@
     </row>
     <row r="248" spans="1:6">
       <c r="A248">
-        <v>10407</v>
+        <v>10403</v>
       </c>
       <c r="B248" t="s">
-        <v>42</v>
+        <v>204</v>
       </c>
       <c r="C248" t="s">
         <v>7</v>
       </c>
-      <c r="D248" t="s">
-        <v>229</v>
-      </c>
       <c r="E248" t="s">
-        <v>43</v>
+        <v>205</v>
       </c>
       <c r="F248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:6">
       <c r="A249">
-        <v>10407</v>
+        <v>10403</v>
       </c>
       <c r="B249" t="s">
-        <v>42</v>
+        <v>204</v>
       </c>
       <c r="C249" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D249" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="E249" t="s">
-        <v>43</v>
+        <v>205</v>
       </c>
       <c r="F249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:6">
       <c r="A250">
-        <v>10407</v>
+        <v>10404</v>
       </c>
       <c r="B250" t="s">
-        <v>42</v>
+        <v>207</v>
       </c>
       <c r="C250" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="D250" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="E250" t="s">
-        <v>43</v>
+        <v>209</v>
       </c>
       <c r="F250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:6">
       <c r="A251">
-        <v>10407</v>
+        <v>10405</v>
       </c>
       <c r="B251" t="s">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="C251" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="D251" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="E251" t="s">
-        <v>43</v>
+        <v>212</v>
       </c>
       <c r="F251">
         <v>1</v>
@@ -6161,19 +5914,19 @@
     </row>
     <row r="252" spans="1:6">
       <c r="A252">
-        <v>10408</v>
+        <v>10405</v>
       </c>
       <c r="B252" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
       <c r="C252" t="s">
         <v>7</v>
       </c>
       <c r="D252" t="s">
-        <v>160</v>
+        <v>213</v>
       </c>
       <c r="E252" t="s">
-        <v>161</v>
+        <v>212</v>
       </c>
       <c r="F252">
         <v>1</v>
@@ -6181,19 +5934,19 @@
     </row>
     <row r="253" spans="1:6">
       <c r="A253">
-        <v>10408</v>
+        <v>10406</v>
       </c>
       <c r="B253" t="s">
-        <v>159</v>
+        <v>44</v>
       </c>
       <c r="C253" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="D253" t="s">
-        <v>162</v>
+        <v>214</v>
       </c>
       <c r="E253" t="s">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="F253">
         <v>1</v>
@@ -6201,19 +5954,19 @@
     </row>
     <row r="254" spans="1:6">
       <c r="A254">
-        <v>10408</v>
+        <v>10406</v>
       </c>
       <c r="B254" t="s">
-        <v>159</v>
+        <v>44</v>
       </c>
       <c r="C254" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="D254" t="s">
-        <v>163</v>
+        <v>215</v>
       </c>
       <c r="E254" t="s">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="F254">
         <v>1</v>
@@ -6221,19 +5974,19 @@
     </row>
     <row r="255" spans="1:6">
       <c r="A255">
-        <v>10408</v>
+        <v>10406</v>
       </c>
       <c r="B255" t="s">
-        <v>159</v>
+        <v>44</v>
       </c>
       <c r="C255" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="D255" t="s">
-        <v>164</v>
+        <v>216</v>
       </c>
       <c r="E255" t="s">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="F255">
         <v>1</v>
@@ -6241,19 +5994,19 @@
     </row>
     <row r="256" spans="1:6">
       <c r="A256">
-        <v>10408</v>
+        <v>10406</v>
       </c>
       <c r="B256" t="s">
-        <v>159</v>
+        <v>44</v>
       </c>
       <c r="C256" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="D256" t="s">
-        <v>166</v>
+        <v>217</v>
       </c>
       <c r="E256" t="s">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="F256">
         <v>1</v>
@@ -6261,76 +6014,79 @@
     </row>
     <row r="257" spans="1:6">
       <c r="A257">
-        <v>10409</v>
+        <v>10406</v>
       </c>
       <c r="B257" t="s">
-        <v>167</v>
+        <v>44</v>
       </c>
       <c r="C257" t="s">
         <v>7</v>
       </c>
       <c r="D257" t="s">
-        <v>168</v>
+        <v>104</v>
       </c>
       <c r="E257" t="s">
-        <v>169</v>
+        <v>45</v>
       </c>
       <c r="F257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:6">
       <c r="A258">
-        <v>10409</v>
+        <v>10406</v>
       </c>
       <c r="B258" t="s">
-        <v>167</v>
+        <v>44</v>
       </c>
       <c r="C258" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="D258" t="s">
+        <v>105</v>
       </c>
       <c r="E258" t="s">
-        <v>169</v>
+        <v>45</v>
       </c>
       <c r="F258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:6">
       <c r="A259">
-        <v>10409</v>
+        <v>10406</v>
       </c>
       <c r="B259" t="s">
-        <v>167</v>
+        <v>44</v>
       </c>
       <c r="C259" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D259" t="s">
-        <v>170</v>
+        <v>218</v>
       </c>
       <c r="E259" t="s">
-        <v>169</v>
+        <v>45</v>
       </c>
       <c r="F259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:6">
       <c r="A260">
-        <v>10501</v>
+        <v>10406</v>
       </c>
       <c r="B260" t="s">
-        <v>171</v>
-      </c>
-      <c r="C260" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D260" s="1" t="s">
-        <v>278</v>
+        <v>44</v>
+      </c>
+      <c r="C260" t="s">
+        <v>40</v>
+      </c>
+      <c r="D260" t="s">
+        <v>219</v>
       </c>
       <c r="E260" t="s">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="F260">
         <v>1</v>
@@ -6338,19 +6094,19 @@
     </row>
     <row r="261" spans="1:6">
       <c r="A261">
-        <v>10501</v>
+        <v>10406</v>
       </c>
       <c r="B261" t="s">
-        <v>171</v>
-      </c>
-      <c r="C261" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D261" s="1" t="s">
-        <v>280</v>
+        <v>44</v>
+      </c>
+      <c r="C261" t="s">
+        <v>41</v>
+      </c>
+      <c r="D261" t="s">
+        <v>220</v>
       </c>
       <c r="E261" t="s">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="F261">
         <v>1</v>
@@ -6358,19 +6114,19 @@
     </row>
     <row r="262" spans="1:6">
       <c r="A262">
-        <v>10501</v>
+        <v>10406</v>
       </c>
       <c r="B262" t="s">
-        <v>171</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D262" s="1" t="s">
-        <v>281</v>
+        <v>44</v>
+      </c>
+      <c r="C262" t="s">
+        <v>9</v>
+      </c>
+      <c r="D262" t="s">
+        <v>221</v>
       </c>
       <c r="E262" t="s">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="F262">
         <v>1</v>
@@ -6378,19 +6134,19 @@
     </row>
     <row r="263" spans="1:6">
       <c r="A263">
-        <v>10501</v>
+        <v>10407</v>
       </c>
       <c r="B263" t="s">
-        <v>171</v>
+        <v>42</v>
       </c>
       <c r="C263" t="s">
         <v>7</v>
       </c>
-      <c r="D263" s="1" t="s">
-        <v>279</v>
+      <c r="D263" t="s">
+        <v>222</v>
       </c>
       <c r="E263" t="s">
-        <v>172</v>
+        <v>43</v>
       </c>
       <c r="F263">
         <v>1</v>
@@ -6398,19 +6154,19 @@
     </row>
     <row r="264" spans="1:6">
       <c r="A264">
-        <v>10501</v>
+        <v>10407</v>
       </c>
       <c r="B264" t="s">
-        <v>171</v>
+        <v>42</v>
       </c>
       <c r="C264" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="D264" t="s">
-        <v>173</v>
+        <v>216</v>
       </c>
       <c r="E264" t="s">
-        <v>172</v>
+        <v>43</v>
       </c>
       <c r="F264">
         <v>1</v>
@@ -6418,19 +6174,19 @@
     </row>
     <row r="265" spans="1:6">
       <c r="A265">
-        <v>10501</v>
+        <v>10407</v>
       </c>
       <c r="B265" t="s">
-        <v>171</v>
+        <v>42</v>
       </c>
       <c r="C265" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="D265" t="s">
-        <v>174</v>
+        <v>223</v>
       </c>
       <c r="E265" t="s">
-        <v>172</v>
+        <v>43</v>
       </c>
       <c r="F265">
         <v>1</v>
@@ -6438,19 +6194,19 @@
     </row>
     <row r="266" spans="1:6">
       <c r="A266">
-        <v>10501</v>
+        <v>10407</v>
       </c>
       <c r="B266" t="s">
-        <v>171</v>
+        <v>42</v>
       </c>
       <c r="C266" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D266" t="s">
-        <v>175</v>
+        <v>224</v>
       </c>
       <c r="E266" t="s">
-        <v>172</v>
+        <v>43</v>
       </c>
       <c r="F266">
         <v>1</v>
@@ -6458,19 +6214,19 @@
     </row>
     <row r="267" spans="1:6">
       <c r="A267">
-        <v>10501</v>
+        <v>10407</v>
       </c>
       <c r="B267" t="s">
-        <v>171</v>
+        <v>42</v>
       </c>
       <c r="C267" t="s">
-        <v>9</v>
-      </c>
-      <c r="D267" s="1" t="s">
-        <v>338</v>
+        <v>40</v>
+      </c>
+      <c r="D267" t="s">
+        <v>225</v>
       </c>
       <c r="E267" t="s">
-        <v>172</v>
+        <v>43</v>
       </c>
       <c r="F267">
         <v>1</v>
@@ -6478,19 +6234,19 @@
     </row>
     <row r="268" spans="1:6">
       <c r="A268">
-        <v>10502</v>
+        <v>10407</v>
       </c>
       <c r="B268" t="s">
-        <v>176</v>
+        <v>42</v>
       </c>
       <c r="C268" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="D268" t="s">
-        <v>177</v>
+        <v>226</v>
       </c>
       <c r="E268" t="s">
-        <v>178</v>
+        <v>43</v>
       </c>
       <c r="F268">
         <v>1</v>
@@ -6498,19 +6254,19 @@
     </row>
     <row r="269" spans="1:6">
       <c r="A269">
-        <v>10502</v>
+        <v>10408</v>
       </c>
       <c r="B269" t="s">
-        <v>176</v>
-      </c>
-      <c r="C269" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D269" s="1" t="s">
-        <v>274</v>
+        <v>227</v>
+      </c>
+      <c r="C269" t="s">
+        <v>7</v>
+      </c>
+      <c r="D269" t="s">
+        <v>228</v>
       </c>
       <c r="E269" t="s">
-        <v>178</v>
+        <v>229</v>
       </c>
       <c r="F269">
         <v>1</v>
@@ -6518,19 +6274,19 @@
     </row>
     <row r="270" spans="1:6">
       <c r="A270">
-        <v>10502</v>
+        <v>10408</v>
       </c>
       <c r="B270" t="s">
-        <v>176</v>
-      </c>
-      <c r="C270" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D270" s="1" t="s">
-        <v>276</v>
+        <v>227</v>
+      </c>
+      <c r="C270" t="s">
+        <v>7</v>
+      </c>
+      <c r="D270" t="s">
+        <v>230</v>
       </c>
       <c r="E270" t="s">
-        <v>178</v>
+        <v>229</v>
       </c>
       <c r="F270">
         <v>1</v>
@@ -6538,16 +6294,19 @@
     </row>
     <row r="271" spans="1:6">
       <c r="A271">
-        <v>10503</v>
+        <v>10408</v>
       </c>
       <c r="B271" t="s">
-        <v>179</v>
+        <v>227</v>
       </c>
       <c r="C271" t="s">
         <v>7</v>
       </c>
+      <c r="D271" t="s">
+        <v>231</v>
+      </c>
       <c r="E271" t="s">
-        <v>180</v>
+        <v>229</v>
       </c>
       <c r="F271">
         <v>1</v>
@@ -6555,16 +6314,19 @@
     </row>
     <row r="272" spans="1:6">
       <c r="A272">
-        <v>10503</v>
+        <v>10408</v>
       </c>
       <c r="B272" t="s">
-        <v>179</v>
+        <v>227</v>
       </c>
       <c r="C272" t="s">
         <v>39</v>
       </c>
+      <c r="D272" t="s">
+        <v>232</v>
+      </c>
       <c r="E272" t="s">
-        <v>180</v>
+        <v>229</v>
       </c>
       <c r="F272">
         <v>1</v>
@@ -6572,16 +6334,19 @@
     </row>
     <row r="273" spans="1:6">
       <c r="A273">
-        <v>10503</v>
+        <v>10408</v>
       </c>
       <c r="B273" t="s">
-        <v>179</v>
+        <v>227</v>
       </c>
       <c r="C273" t="s">
         <v>40</v>
       </c>
+      <c r="D273" t="s">
+        <v>233</v>
+      </c>
       <c r="E273" t="s">
-        <v>180</v>
+        <v>229</v>
       </c>
       <c r="F273">
         <v>1</v>
@@ -6589,16 +6354,19 @@
     </row>
     <row r="274" spans="1:6">
       <c r="A274">
-        <v>10503</v>
+        <v>10408</v>
       </c>
       <c r="B274" t="s">
-        <v>179</v>
+        <v>227</v>
       </c>
       <c r="C274" t="s">
         <v>41</v>
       </c>
+      <c r="D274" t="s">
+        <v>234</v>
+      </c>
       <c r="E274" t="s">
-        <v>180</v>
+        <v>229</v>
       </c>
       <c r="F274">
         <v>1</v>
@@ -6606,16 +6374,19 @@
     </row>
     <row r="275" spans="1:6">
       <c r="A275">
-        <v>10503</v>
+        <v>10408</v>
       </c>
       <c r="B275" t="s">
-        <v>179</v>
+        <v>227</v>
       </c>
       <c r="C275" t="s">
-        <v>9</v>
+        <v>235</v>
+      </c>
+      <c r="D275" t="s">
+        <v>236</v>
       </c>
       <c r="E275" t="s">
-        <v>180</v>
+        <v>229</v>
       </c>
       <c r="F275">
         <v>1</v>
@@ -6623,59 +6394,56 @@
     </row>
     <row r="276" spans="1:6">
       <c r="A276">
-        <v>10601</v>
+        <v>10409</v>
       </c>
       <c r="B276" t="s">
-        <v>181</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D276" s="1" t="s">
-        <v>272</v>
+        <v>237</v>
+      </c>
+      <c r="C276" t="s">
+        <v>7</v>
+      </c>
+      <c r="D276" t="s">
+        <v>238</v>
       </c>
       <c r="E276" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="F276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:6">
       <c r="A277">
-        <v>10601</v>
+        <v>10409</v>
       </c>
       <c r="B277" t="s">
-        <v>181</v>
+        <v>237</v>
       </c>
       <c r="C277" t="s">
-        <v>7</v>
-      </c>
-      <c r="D277" s="1" t="s">
-        <v>270</v>
+        <v>9</v>
       </c>
       <c r="E277" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="F277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:6">
       <c r="A278">
-        <v>10601</v>
+        <v>10409</v>
       </c>
       <c r="B278" t="s">
-        <v>181</v>
+        <v>237</v>
       </c>
       <c r="C278" t="s">
-        <v>39</v>
-      </c>
-      <c r="D278" s="1" t="s">
-        <v>271</v>
+        <v>41</v>
+      </c>
+      <c r="D278" t="s">
+        <v>240</v>
       </c>
       <c r="E278" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="F278">
         <v>1</v>
@@ -6683,19 +6451,19 @@
     </row>
     <row r="279" spans="1:6">
       <c r="A279">
-        <v>10601</v>
+        <v>10501</v>
       </c>
       <c r="B279" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="C279" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="D279" t="s">
-        <v>183</v>
+        <v>242</v>
       </c>
       <c r="E279" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="F279">
         <v>1</v>
@@ -6703,19 +6471,19 @@
     </row>
     <row r="280" spans="1:6">
       <c r="A280">
-        <v>10601</v>
+        <v>10501</v>
       </c>
       <c r="B280" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="C280" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="D280" t="s">
-        <v>184</v>
+        <v>244</v>
       </c>
       <c r="E280" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="F280">
         <v>1</v>
@@ -6723,19 +6491,19 @@
     </row>
     <row r="281" spans="1:6">
       <c r="A281">
-        <v>10602</v>
+        <v>10501</v>
       </c>
       <c r="B281" t="s">
-        <v>185</v>
+        <v>241</v>
       </c>
       <c r="C281" t="s">
         <v>7</v>
       </c>
       <c r="D281" t="s">
-        <v>186</v>
+        <v>245</v>
       </c>
       <c r="E281" t="s">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="F281">
         <v>1</v>
@@ -6743,19 +6511,19 @@
     </row>
     <row r="282" spans="1:6">
       <c r="A282">
-        <v>10602</v>
+        <v>10501</v>
       </c>
       <c r="B282" t="s">
-        <v>185</v>
+        <v>241</v>
       </c>
       <c r="C282" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="D282" t="s">
-        <v>188</v>
+        <v>246</v>
       </c>
       <c r="E282" t="s">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="F282">
         <v>1</v>
@@ -6763,19 +6531,19 @@
     </row>
     <row r="283" spans="1:6">
       <c r="A283">
-        <v>10602</v>
+        <v>10501</v>
       </c>
       <c r="B283" t="s">
-        <v>185</v>
+        <v>241</v>
       </c>
       <c r="C283" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="D283" t="s">
-        <v>189</v>
+        <v>247</v>
       </c>
       <c r="E283" t="s">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="F283">
         <v>1</v>
@@ -6783,19 +6551,19 @@
     </row>
     <row r="284" spans="1:6">
       <c r="A284">
-        <v>10602</v>
+        <v>10501</v>
       </c>
       <c r="B284" t="s">
-        <v>185</v>
+        <v>241</v>
       </c>
       <c r="C284" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D284" t="s">
-        <v>190</v>
+        <v>248</v>
       </c>
       <c r="E284" t="s">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="F284">
         <v>1</v>
@@ -6803,19 +6571,19 @@
     </row>
     <row r="285" spans="1:6">
       <c r="A285">
-        <v>10603</v>
+        <v>10501</v>
       </c>
       <c r="B285" t="s">
-        <v>191</v>
+        <v>241</v>
       </c>
       <c r="C285" t="s">
-        <v>7</v>
-      </c>
-      <c r="D285" s="1" t="s">
-        <v>266</v>
+        <v>40</v>
+      </c>
+      <c r="D285" t="s">
+        <v>249</v>
       </c>
       <c r="E285" t="s">
-        <v>192</v>
+        <v>243</v>
       </c>
       <c r="F285">
         <v>1</v>
@@ -6823,19 +6591,19 @@
     </row>
     <row r="286" spans="1:6">
       <c r="A286">
-        <v>10603</v>
+        <v>10501</v>
       </c>
       <c r="B286" t="s">
-        <v>191</v>
-      </c>
-      <c r="C286" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D286" s="1" t="s">
-        <v>268</v>
+        <v>241</v>
+      </c>
+      <c r="C286" t="s">
+        <v>41</v>
+      </c>
+      <c r="D286" t="s">
+        <v>250</v>
       </c>
       <c r="E286" t="s">
-        <v>192</v>
+        <v>243</v>
       </c>
       <c r="F286">
         <v>1</v>
@@ -6843,19 +6611,19 @@
     </row>
     <row r="287" spans="1:6">
       <c r="A287">
-        <v>10603</v>
+        <v>10501</v>
       </c>
       <c r="B287" t="s">
-        <v>191</v>
+        <v>241</v>
       </c>
       <c r="C287" t="s">
-        <v>193</v>
-      </c>
-      <c r="D287" s="1" t="s">
-        <v>265</v>
+        <v>9</v>
+      </c>
+      <c r="D287" t="s">
+        <v>251</v>
       </c>
       <c r="E287" t="s">
-        <v>192</v>
+        <v>243</v>
       </c>
       <c r="F287">
         <v>1</v>
@@ -6863,19 +6631,19 @@
     </row>
     <row r="288" spans="1:6">
       <c r="A288">
-        <v>10603</v>
+        <v>10502</v>
       </c>
       <c r="B288" t="s">
-        <v>191</v>
+        <v>252</v>
       </c>
       <c r="C288" t="s">
-        <v>194</v>
-      </c>
-      <c r="D288" s="1" t="s">
-        <v>267</v>
+        <v>7</v>
+      </c>
+      <c r="D288" t="s">
+        <v>253</v>
       </c>
       <c r="E288" t="s">
-        <v>192</v>
+        <v>254</v>
       </c>
       <c r="F288">
         <v>1</v>
@@ -6883,19 +6651,19 @@
     </row>
     <row r="289" spans="1:6">
       <c r="A289">
-        <v>10603</v>
+        <v>10502</v>
       </c>
       <c r="B289" t="s">
-        <v>191</v>
+        <v>252</v>
       </c>
       <c r="C289" t="s">
-        <v>195</v>
-      </c>
-      <c r="D289" s="1" t="s">
-        <v>269</v>
+        <v>7</v>
+      </c>
+      <c r="D289" t="s">
+        <v>255</v>
       </c>
       <c r="E289" t="s">
-        <v>192</v>
+        <v>254</v>
       </c>
       <c r="F289">
         <v>1</v>
@@ -6903,19 +6671,19 @@
     </row>
     <row r="290" spans="1:6">
       <c r="A290">
-        <v>10701</v>
+        <v>10502</v>
       </c>
       <c r="B290" t="s">
-        <v>196</v>
+        <v>252</v>
       </c>
       <c r="C290" t="s">
         <v>7</v>
       </c>
-      <c r="D290" s="1" t="s">
-        <v>261</v>
+      <c r="D290" t="s">
+        <v>256</v>
       </c>
       <c r="E290" t="s">
-        <v>197</v>
+        <v>254</v>
       </c>
       <c r="F290">
         <v>1</v>
@@ -6923,19 +6691,19 @@
     </row>
     <row r="291" spans="1:6">
       <c r="A291">
-        <v>10701</v>
+        <v>10502</v>
       </c>
       <c r="B291" t="s">
-        <v>196</v>
-      </c>
-      <c r="C291" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D291" s="1" t="s">
-        <v>262</v>
+        <v>252</v>
+      </c>
+      <c r="C291" t="s">
+        <v>151</v>
+      </c>
+      <c r="D291" t="s">
+        <v>257</v>
       </c>
       <c r="E291" t="s">
-        <v>197</v>
+        <v>254</v>
       </c>
       <c r="F291">
         <v>1</v>
@@ -6943,19 +6711,16 @@
     </row>
     <row r="292" spans="1:6">
       <c r="A292">
-        <v>10701</v>
+        <v>10503</v>
       </c>
       <c r="B292" t="s">
-        <v>196</v>
+        <v>258</v>
       </c>
       <c r="C292" t="s">
-        <v>124</v>
-      </c>
-      <c r="D292" s="1" t="s">
-        <v>264</v>
+        <v>7</v>
       </c>
       <c r="E292" t="s">
-        <v>197</v>
+        <v>259</v>
       </c>
       <c r="F292">
         <v>1</v>
@@ -6963,19 +6728,16 @@
     </row>
     <row r="293" spans="1:6">
       <c r="A293">
-        <v>10701</v>
+        <v>10503</v>
       </c>
       <c r="B293" t="s">
-        <v>196</v>
-      </c>
-      <c r="C293" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D293" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
+      </c>
+      <c r="C293" t="s">
+        <v>39</v>
       </c>
       <c r="E293" t="s">
-        <v>197</v>
+        <v>259</v>
       </c>
       <c r="F293">
         <v>1</v>
@@ -6983,19 +6745,16 @@
     </row>
     <row r="294" spans="1:6">
       <c r="A294">
-        <v>10702</v>
+        <v>10503</v>
       </c>
       <c r="B294" t="s">
-        <v>198</v>
+        <v>258</v>
       </c>
       <c r="C294" t="s">
-        <v>7</v>
-      </c>
-      <c r="D294" t="s">
-        <v>199</v>
+        <v>40</v>
       </c>
       <c r="E294" t="s">
-        <v>200</v>
+        <v>259</v>
       </c>
       <c r="F294">
         <v>1</v>
@@ -7003,19 +6762,16 @@
     </row>
     <row r="295" spans="1:6">
       <c r="A295">
-        <v>10702</v>
+        <v>10503</v>
       </c>
       <c r="B295" t="s">
-        <v>198</v>
-      </c>
-      <c r="C295" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D295" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="C295" t="s">
+        <v>41</v>
       </c>
       <c r="E295" t="s">
-        <v>200</v>
+        <v>259</v>
       </c>
       <c r="F295">
         <v>1</v>
@@ -7023,19 +6779,16 @@
     </row>
     <row r="296" spans="1:6">
       <c r="A296">
-        <v>10702</v>
+        <v>10503</v>
       </c>
       <c r="B296" t="s">
-        <v>198</v>
-      </c>
-      <c r="C296" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C296" t="s">
+        <v>9</v>
+      </c>
+      <c r="E296" t="s">
         <v>259</v>
-      </c>
-      <c r="D296" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="E296" t="s">
-        <v>200</v>
       </c>
       <c r="F296">
         <v>1</v>
@@ -7043,19 +6796,19 @@
     </row>
     <row r="297" spans="1:6">
       <c r="A297">
-        <v>10702</v>
+        <v>10601</v>
       </c>
       <c r="B297" t="s">
-        <v>198</v>
+        <v>260</v>
       </c>
       <c r="C297" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="D297" t="s">
-        <v>201</v>
+        <v>261</v>
       </c>
       <c r="E297" t="s">
-        <v>200</v>
+        <v>262</v>
       </c>
       <c r="F297">
         <v>1</v>
@@ -7063,19 +6816,19 @@
     </row>
     <row r="298" spans="1:6">
       <c r="A298">
-        <v>10702</v>
+        <v>10601</v>
       </c>
       <c r="B298" t="s">
-        <v>198</v>
+        <v>260</v>
       </c>
       <c r="C298" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="D298" t="s">
-        <v>202</v>
+        <v>263</v>
       </c>
       <c r="E298" t="s">
-        <v>200</v>
+        <v>262</v>
       </c>
       <c r="F298">
         <v>1</v>
@@ -7083,19 +6836,19 @@
     </row>
     <row r="299" spans="1:6">
       <c r="A299">
-        <v>10702</v>
+        <v>10601</v>
       </c>
       <c r="B299" t="s">
-        <v>198</v>
+        <v>260</v>
       </c>
       <c r="C299" t="s">
-        <v>41</v>
-      </c>
-      <c r="D299" s="1" t="s">
-        <v>256</v>
+        <v>7</v>
+      </c>
+      <c r="D299" t="s">
+        <v>105</v>
       </c>
       <c r="E299" t="s">
-        <v>200</v>
+        <v>262</v>
       </c>
       <c r="F299">
         <v>1</v>
@@ -7103,19 +6856,19 @@
     </row>
     <row r="300" spans="1:6">
       <c r="A300">
-        <v>10801</v>
+        <v>10601</v>
       </c>
       <c r="B300" t="s">
-        <v>203</v>
+        <v>260</v>
       </c>
       <c r="C300" t="s">
         <v>7</v>
       </c>
-      <c r="D300" s="1" t="s">
-        <v>331</v>
+      <c r="D300" t="s">
+        <v>104</v>
       </c>
       <c r="E300" t="s">
-        <v>204</v>
+        <v>262</v>
       </c>
       <c r="F300">
         <v>1</v>
@@ -7123,19 +6876,19 @@
     </row>
     <row r="301" spans="1:6">
       <c r="A301">
-        <v>10801</v>
+        <v>10601</v>
       </c>
       <c r="B301" t="s">
-        <v>203</v>
+        <v>260</v>
       </c>
       <c r="C301" t="s">
         <v>39</v>
       </c>
-      <c r="D301" s="1" t="s">
-        <v>332</v>
+      <c r="D301" t="s">
+        <v>264</v>
       </c>
       <c r="E301" t="s">
-        <v>204</v>
+        <v>262</v>
       </c>
       <c r="F301">
         <v>1</v>
@@ -7143,19 +6896,19 @@
     </row>
     <row r="302" spans="1:6">
       <c r="A302">
-        <v>10801</v>
+        <v>10601</v>
       </c>
       <c r="B302" t="s">
-        <v>203</v>
+        <v>260</v>
       </c>
       <c r="C302" t="s">
         <v>40</v>
       </c>
-      <c r="D302" s="1" t="s">
-        <v>333</v>
+      <c r="D302" t="s">
+        <v>265</v>
       </c>
       <c r="E302" t="s">
-        <v>204</v>
+        <v>262</v>
       </c>
       <c r="F302">
         <v>1</v>
@@ -7163,19 +6916,19 @@
     </row>
     <row r="303" spans="1:6">
       <c r="A303">
-        <v>10801</v>
+        <v>10601</v>
       </c>
       <c r="B303" t="s">
-        <v>203</v>
-      </c>
-      <c r="C303" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D303" s="1" t="s">
-        <v>251</v>
+        <v>260</v>
+      </c>
+      <c r="C303" t="s">
+        <v>41</v>
+      </c>
+      <c r="D303" t="s">
+        <v>266</v>
       </c>
       <c r="E303" t="s">
-        <v>204</v>
+        <v>262</v>
       </c>
       <c r="F303">
         <v>1</v>
@@ -7183,19 +6936,19 @@
     </row>
     <row r="304" spans="1:6">
       <c r="A304">
-        <v>10801</v>
+        <v>10602</v>
       </c>
       <c r="B304" t="s">
-        <v>203</v>
-      </c>
-      <c r="C304" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D304" s="1" t="s">
-        <v>254</v>
+        <v>267</v>
+      </c>
+      <c r="C304" t="s">
+        <v>7</v>
+      </c>
+      <c r="D304" t="s">
+        <v>261</v>
       </c>
       <c r="E304" t="s">
-        <v>204</v>
+        <v>268</v>
       </c>
       <c r="F304">
         <v>1</v>
@@ -7203,19 +6956,19 @@
     </row>
     <row r="305" spans="1:6">
       <c r="A305">
-        <v>10801</v>
+        <v>10602</v>
       </c>
       <c r="B305" t="s">
-        <v>203</v>
+        <v>267</v>
       </c>
       <c r="C305" t="s">
-        <v>205</v>
-      </c>
-      <c r="D305" s="1" t="s">
-        <v>344</v>
+        <v>39</v>
+      </c>
+      <c r="D305" t="s">
+        <v>269</v>
       </c>
       <c r="E305" t="s">
-        <v>204</v>
+        <v>268</v>
       </c>
       <c r="F305">
         <v>1</v>
@@ -7223,19 +6976,19 @@
     </row>
     <row r="306" spans="1:6">
       <c r="A306">
-        <v>10801</v>
+        <v>10602</v>
       </c>
       <c r="B306" t="s">
-        <v>203</v>
+        <v>267</v>
       </c>
       <c r="C306" t="s">
-        <v>41</v>
-      </c>
-      <c r="D306" s="1" t="s">
-        <v>334</v>
+        <v>40</v>
+      </c>
+      <c r="D306" t="s">
+        <v>270</v>
       </c>
       <c r="E306" t="s">
-        <v>204</v>
+        <v>268</v>
       </c>
       <c r="F306">
         <v>1</v>
@@ -7243,19 +6996,19 @@
     </row>
     <row r="307" spans="1:6">
       <c r="A307">
-        <v>10801</v>
+        <v>10602</v>
       </c>
       <c r="B307" t="s">
-        <v>203</v>
+        <v>267</v>
       </c>
       <c r="C307" t="s">
-        <v>206</v>
-      </c>
-      <c r="D307" s="1" t="s">
-        <v>337</v>
+        <v>41</v>
+      </c>
+      <c r="D307" t="s">
+        <v>271</v>
       </c>
       <c r="E307" t="s">
-        <v>204</v>
+        <v>268</v>
       </c>
       <c r="F307">
         <v>1</v>
@@ -7263,19 +7016,19 @@
     </row>
     <row r="308" spans="1:6">
       <c r="A308">
-        <v>10801</v>
+        <v>10603</v>
       </c>
       <c r="B308" t="s">
-        <v>203</v>
+        <v>272</v>
       </c>
       <c r="C308" t="s">
-        <v>193</v>
-      </c>
-      <c r="D308" s="1" t="s">
-        <v>336</v>
+        <v>7</v>
+      </c>
+      <c r="D308" t="s">
+        <v>273</v>
       </c>
       <c r="E308" t="s">
-        <v>204</v>
+        <v>274</v>
       </c>
       <c r="F308">
         <v>1</v>
@@ -7283,19 +7036,19 @@
     </row>
     <row r="309" spans="1:6">
       <c r="A309">
-        <v>10801</v>
+        <v>10603</v>
       </c>
       <c r="B309" t="s">
-        <v>203</v>
+        <v>272</v>
       </c>
       <c r="C309" t="s">
-        <v>207</v>
-      </c>
-      <c r="D309" s="1" t="s">
-        <v>255</v>
+        <v>7</v>
+      </c>
+      <c r="D309" t="s">
+        <v>105</v>
       </c>
       <c r="E309" t="s">
-        <v>204</v>
+        <v>274</v>
       </c>
       <c r="F309">
         <v>1</v>
@@ -7303,19 +7056,19 @@
     </row>
     <row r="310" spans="1:6">
       <c r="A310">
-        <v>10802</v>
+        <v>10603</v>
       </c>
       <c r="B310" t="s">
-        <v>208</v>
-      </c>
-      <c r="C310" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D310" s="1" t="s">
-        <v>335</v>
+        <v>272</v>
+      </c>
+      <c r="C310" t="s">
+        <v>7</v>
+      </c>
+      <c r="D310" t="s">
+        <v>275</v>
       </c>
       <c r="E310" t="s">
-        <v>210</v>
+        <v>274</v>
       </c>
       <c r="F310">
         <v>1</v>
@@ -7323,19 +7076,19 @@
     </row>
     <row r="311" spans="1:6">
       <c r="A311">
-        <v>10802</v>
+        <v>10603</v>
       </c>
       <c r="B311" t="s">
-        <v>208</v>
+        <v>272</v>
       </c>
       <c r="C311" t="s">
-        <v>7</v>
+        <v>276</v>
       </c>
       <c r="D311" t="s">
-        <v>209</v>
+        <v>277</v>
       </c>
       <c r="E311" t="s">
-        <v>210</v>
+        <v>274</v>
       </c>
       <c r="F311">
         <v>1</v>
@@ -7343,19 +7096,19 @@
     </row>
     <row r="312" spans="1:6">
       <c r="A312">
-        <v>10802</v>
+        <v>10603</v>
       </c>
       <c r="B312" t="s">
-        <v>208</v>
-      </c>
-      <c r="C312" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D312" s="1" t="s">
-        <v>249</v>
+        <v>272</v>
+      </c>
+      <c r="C312" t="s">
+        <v>278</v>
+      </c>
+      <c r="D312" t="s">
+        <v>279</v>
       </c>
       <c r="E312" t="s">
-        <v>210</v>
+        <v>274</v>
       </c>
       <c r="F312">
         <v>1</v>
@@ -7363,19 +7116,19 @@
     </row>
     <row r="313" spans="1:6">
       <c r="A313">
-        <v>10802</v>
+        <v>10603</v>
       </c>
       <c r="B313" t="s">
-        <v>208</v>
+        <v>272</v>
       </c>
       <c r="C313" t="s">
-        <v>39</v>
+        <v>280</v>
       </c>
       <c r="D313" t="s">
-        <v>211</v>
+        <v>281</v>
       </c>
       <c r="E313" t="s">
-        <v>210</v>
+        <v>274</v>
       </c>
       <c r="F313">
         <v>1</v>
@@ -7383,19 +7136,19 @@
     </row>
     <row r="314" spans="1:6">
       <c r="A314">
-        <v>10802</v>
+        <v>10701</v>
       </c>
       <c r="B314" t="s">
-        <v>208</v>
+        <v>282</v>
       </c>
       <c r="C314" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="D314" t="s">
-        <v>212</v>
+        <v>283</v>
       </c>
       <c r="E314" t="s">
-        <v>210</v>
+        <v>284</v>
       </c>
       <c r="F314">
         <v>1</v>
@@ -7403,19 +7156,19 @@
     </row>
     <row r="315" spans="1:6">
       <c r="A315">
-        <v>10802</v>
+        <v>10701</v>
       </c>
       <c r="B315" t="s">
-        <v>208</v>
+        <v>282</v>
       </c>
       <c r="C315" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="D315" t="s">
-        <v>212</v>
+        <v>285</v>
       </c>
       <c r="E315" t="s">
-        <v>210</v>
+        <v>284</v>
       </c>
       <c r="F315">
         <v>1</v>
@@ -7423,19 +7176,19 @@
     </row>
     <row r="316" spans="1:6">
       <c r="A316">
-        <v>10901</v>
+        <v>10701</v>
       </c>
       <c r="B316" t="s">
-        <v>213</v>
+        <v>282</v>
       </c>
       <c r="C316" t="s">
-        <v>7</v>
+        <v>151</v>
       </c>
       <c r="D316" t="s">
-        <v>214</v>
+        <v>286</v>
       </c>
       <c r="E316" t="s">
-        <v>215</v>
+        <v>284</v>
       </c>
       <c r="F316">
         <v>1</v>
@@ -7443,19 +7196,19 @@
     </row>
     <row r="317" spans="1:6">
       <c r="A317">
-        <v>10901</v>
+        <v>10701</v>
       </c>
       <c r="B317" t="s">
-        <v>213</v>
+        <v>282</v>
       </c>
       <c r="C317" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D317" t="s">
-        <v>216</v>
+        <v>287</v>
       </c>
       <c r="E317" t="s">
-        <v>215</v>
+        <v>284</v>
       </c>
       <c r="F317">
         <v>1</v>
@@ -7463,19 +7216,19 @@
     </row>
     <row r="318" spans="1:6">
       <c r="A318">
-        <v>10902</v>
+        <v>10702</v>
       </c>
       <c r="B318" t="s">
-        <v>217</v>
-      </c>
-      <c r="C318" s="1" t="s">
-        <v>240</v>
+        <v>288</v>
+      </c>
+      <c r="C318" t="s">
+        <v>7</v>
       </c>
       <c r="D318" t="s">
-        <v>218</v>
+        <v>289</v>
       </c>
       <c r="E318" t="s">
-        <v>219</v>
+        <v>290</v>
       </c>
       <c r="F318">
         <v>1</v>
@@ -7483,13 +7236,19 @@
     </row>
     <row r="319" spans="1:6">
       <c r="A319">
-        <v>11000</v>
+        <v>10702</v>
       </c>
       <c r="B319" t="s">
-        <v>220</v>
+        <v>288</v>
+      </c>
+      <c r="C319" t="s">
+        <v>7</v>
+      </c>
+      <c r="D319" t="s">
+        <v>291</v>
       </c>
       <c r="E319" t="s">
-        <v>221</v>
+        <v>290</v>
       </c>
       <c r="F319">
         <v>1</v>
@@ -7497,16 +7256,19 @@
     </row>
     <row r="320" spans="1:6">
       <c r="A320">
-        <v>11001</v>
+        <v>10702</v>
       </c>
       <c r="B320" t="s">
-        <v>222</v>
+        <v>288</v>
       </c>
       <c r="C320" t="s">
         <v>7</v>
       </c>
+      <c r="D320" t="s">
+        <v>292</v>
+      </c>
       <c r="E320" t="s">
-        <v>223</v>
+        <v>290</v>
       </c>
       <c r="F320">
         <v>1</v>
@@ -7514,16 +7276,19 @@
     </row>
     <row r="321" spans="1:6">
       <c r="A321">
-        <v>11001</v>
+        <v>10702</v>
       </c>
       <c r="B321" t="s">
-        <v>222</v>
+        <v>288</v>
       </c>
       <c r="C321" t="s">
-        <v>98</v>
+        <v>7</v>
+      </c>
+      <c r="D321" t="s">
+        <v>105</v>
       </c>
       <c r="E321" t="s">
-        <v>223</v>
+        <v>290</v>
       </c>
       <c r="F321">
         <v>1</v>
@@ -7531,16 +7296,19 @@
     </row>
     <row r="322" spans="1:6">
       <c r="A322">
-        <v>11001</v>
+        <v>10702</v>
       </c>
       <c r="B322" t="s">
-        <v>222</v>
+        <v>288</v>
       </c>
       <c r="C322" t="s">
-        <v>9</v>
+        <v>39</v>
+      </c>
+      <c r="D322" t="s">
+        <v>293</v>
       </c>
       <c r="E322" t="s">
-        <v>223</v>
+        <v>290</v>
       </c>
       <c r="F322">
         <v>1</v>
@@ -7548,16 +7316,19 @@
     </row>
     <row r="323" spans="1:6">
       <c r="A323">
-        <v>11002</v>
+        <v>10702</v>
       </c>
       <c r="B323" t="s">
-        <v>224</v>
+        <v>288</v>
       </c>
       <c r="C323" t="s">
-        <v>7</v>
+        <v>40</v>
+      </c>
+      <c r="D323" t="s">
+        <v>294</v>
       </c>
       <c r="E323" t="s">
-        <v>225</v>
+        <v>290</v>
       </c>
       <c r="F323">
         <v>1</v>
@@ -7565,16 +7336,19 @@
     </row>
     <row r="324" spans="1:6">
       <c r="A324">
-        <v>11002</v>
+        <v>10702</v>
       </c>
       <c r="B324" t="s">
-        <v>224</v>
+        <v>288</v>
       </c>
       <c r="C324" t="s">
-        <v>9</v>
+        <v>41</v>
+      </c>
+      <c r="D324" t="s">
+        <v>295</v>
       </c>
       <c r="E324" t="s">
-        <v>225</v>
+        <v>290</v>
       </c>
       <c r="F324">
         <v>1</v>
@@ -7582,44 +7356,406 @@
     </row>
     <row r="325" spans="1:6">
       <c r="A325">
-        <v>11002</v>
+        <v>10801</v>
       </c>
       <c r="B325" t="s">
-        <v>224</v>
+        <v>296</v>
       </c>
       <c r="C325" t="s">
+        <v>7</v>
+      </c>
+      <c r="D325" t="s">
+        <v>297</v>
+      </c>
+      <c r="E325" t="s">
+        <v>298</v>
+      </c>
+      <c r="F325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6">
+      <c r="A326">
+        <v>10801</v>
+      </c>
+      <c r="B326" t="s">
+        <v>296</v>
+      </c>
+      <c r="C326" t="s">
+        <v>7</v>
+      </c>
+      <c r="D326" t="s">
+        <v>104</v>
+      </c>
+      <c r="E326" t="s">
+        <v>298</v>
+      </c>
+      <c r="F326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6">
+      <c r="A327">
+        <v>10801</v>
+      </c>
+      <c r="B327" t="s">
+        <v>296</v>
+      </c>
+      <c r="C327" t="s">
+        <v>39</v>
+      </c>
+      <c r="D327" t="s">
+        <v>299</v>
+      </c>
+      <c r="E327" t="s">
+        <v>298</v>
+      </c>
+      <c r="F327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6">
+      <c r="A328">
+        <v>10801</v>
+      </c>
+      <c r="B328" t="s">
+        <v>296</v>
+      </c>
+      <c r="C328" t="s">
+        <v>40</v>
+      </c>
+      <c r="D328" t="s">
+        <v>300</v>
+      </c>
+      <c r="E328" t="s">
+        <v>298</v>
+      </c>
+      <c r="F328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6">
+      <c r="A329">
+        <v>10801</v>
+      </c>
+      <c r="B329" t="s">
+        <v>296</v>
+      </c>
+      <c r="C329" t="s">
+        <v>7</v>
+      </c>
+      <c r="D329" t="s">
+        <v>301</v>
+      </c>
+      <c r="E329" t="s">
+        <v>298</v>
+      </c>
+      <c r="F329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6">
+      <c r="A330">
+        <v>10801</v>
+      </c>
+      <c r="B330" t="s">
+        <v>296</v>
+      </c>
+      <c r="C330" t="s">
+        <v>119</v>
+      </c>
+      <c r="D330" t="s">
+        <v>302</v>
+      </c>
+      <c r="E330" t="s">
+        <v>298</v>
+      </c>
+      <c r="F330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6">
+      <c r="A331">
+        <v>10801</v>
+      </c>
+      <c r="B331" t="s">
+        <v>296</v>
+      </c>
+      <c r="C331" t="s">
+        <v>303</v>
+      </c>
+      <c r="D331" t="s">
+        <v>304</v>
+      </c>
+      <c r="E331" t="s">
+        <v>298</v>
+      </c>
+      <c r="F331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6">
+      <c r="A332">
+        <v>10801</v>
+      </c>
+      <c r="B332" t="s">
+        <v>296</v>
+      </c>
+      <c r="C332" t="s">
         <v>41</v>
       </c>
-      <c r="E325" t="s">
-        <v>225</v>
-      </c>
-      <c r="F325">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6" ht="16.5">
-      <c r="A326">
+      <c r="D332" t="s">
+        <v>305</v>
+      </c>
+      <c r="E332" t="s">
+        <v>298</v>
+      </c>
+      <c r="F332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6">
+      <c r="A333">
+        <v>10801</v>
+      </c>
+      <c r="B333" t="s">
+        <v>296</v>
+      </c>
+      <c r="C333" t="s">
+        <v>39</v>
+      </c>
+      <c r="D333" t="s">
+        <v>306</v>
+      </c>
+      <c r="E333" t="s">
+        <v>298</v>
+      </c>
+      <c r="F333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6">
+      <c r="A334">
+        <v>10801</v>
+      </c>
+      <c r="B334" t="s">
+        <v>296</v>
+      </c>
+      <c r="C334" t="s">
+        <v>307</v>
+      </c>
+      <c r="D334" t="s">
+        <v>308</v>
+      </c>
+      <c r="E334" t="s">
+        <v>298</v>
+      </c>
+      <c r="F334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6">
+      <c r="A335">
+        <v>10802</v>
+      </c>
+      <c r="B335" t="s">
+        <v>309</v>
+      </c>
+      <c r="C335" t="s">
+        <v>7</v>
+      </c>
+      <c r="D335" t="s">
+        <v>247</v>
+      </c>
+      <c r="E335" t="s">
+        <v>310</v>
+      </c>
+      <c r="F335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6">
+      <c r="A336">
+        <v>10802</v>
+      </c>
+      <c r="B336" t="s">
+        <v>309</v>
+      </c>
+      <c r="C336" t="s">
+        <v>7</v>
+      </c>
+      <c r="D336" t="s">
+        <v>311</v>
+      </c>
+      <c r="E336" t="s">
+        <v>310</v>
+      </c>
+      <c r="F336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6">
+      <c r="A337">
+        <v>10802</v>
+      </c>
+      <c r="B337" t="s">
+        <v>309</v>
+      </c>
+      <c r="C337" t="s">
+        <v>39</v>
+      </c>
+      <c r="D337" t="s">
+        <v>312</v>
+      </c>
+      <c r="E337" t="s">
+        <v>310</v>
+      </c>
+      <c r="F337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6">
+      <c r="A338">
+        <v>10802</v>
+      </c>
+      <c r="B338" t="s">
+        <v>309</v>
+      </c>
+      <c r="C338" t="s">
+        <v>40</v>
+      </c>
+      <c r="D338" t="s">
+        <v>311</v>
+      </c>
+      <c r="E338" t="s">
+        <v>310</v>
+      </c>
+      <c r="F338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6">
+      <c r="A339">
+        <v>10802</v>
+      </c>
+      <c r="B339" t="s">
+        <v>309</v>
+      </c>
+      <c r="C339" t="s">
+        <v>41</v>
+      </c>
+      <c r="D339" t="s">
+        <v>311</v>
+      </c>
+      <c r="E339" t="s">
+        <v>310</v>
+      </c>
+      <c r="F339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6">
+      <c r="A340">
+        <v>10901</v>
+      </c>
+      <c r="B340" t="s">
+        <v>313</v>
+      </c>
+      <c r="C340" t="s">
+        <v>7</v>
+      </c>
+      <c r="D340" t="s">
+        <v>314</v>
+      </c>
+      <c r="E340" t="s">
+        <v>315</v>
+      </c>
+      <c r="F340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6">
+      <c r="A341">
+        <v>10901</v>
+      </c>
+      <c r="B341" t="s">
+        <v>313</v>
+      </c>
+      <c r="C341" t="s">
+        <v>9</v>
+      </c>
+      <c r="D341" t="s">
+        <v>316</v>
+      </c>
+      <c r="E341" t="s">
+        <v>315</v>
+      </c>
+      <c r="F341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6">
+      <c r="A342">
+        <v>10902</v>
+      </c>
+      <c r="B342" t="s">
+        <v>317</v>
+      </c>
+      <c r="C342" t="s">
+        <v>7</v>
+      </c>
+      <c r="D342" t="s">
+        <v>318</v>
+      </c>
+      <c r="E342" t="s">
+        <v>319</v>
+      </c>
+      <c r="F342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6">
+      <c r="A343">
         <v>0</v>
       </c>
-      <c r="B326" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C326" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="D326" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="E326" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="F326">
+      <c r="B343" t="s">
+        <v>320</v>
+      </c>
+      <c r="C343" t="s">
+        <v>321</v>
+      </c>
+      <c r="D343" t="s">
+        <v>322</v>
+      </c>
+      <c r="E343" t="s">
+        <v>323</v>
+      </c>
+      <c r="F343">
         <v>0</v>
       </c>
     </row>
+    <row r="344" spans="1:6">
+      <c r="A344">
+        <v>0</v>
+      </c>
+      <c r="B344" t="s">
+        <v>320</v>
+      </c>
+      <c r="C344" t="s">
+        <v>321</v>
+      </c>
+      <c r="D344" t="s">
+        <v>201</v>
+      </c>
+      <c r="E344" t="s">
+        <v>323</v>
+      </c>
+      <c r="F344">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>